--- a/DFN_parameter_sets/all_parameters_v2.xlsx
+++ b/DFN_parameter_sets/all_parameters_v2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Phd\EPC\DFN_parameter_sets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Phd\Parameter-Calibration\DFN_parameter_sets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4A9D17-E80D-4E1E-B2D5-075BD1AF99B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B615ABE9-AFE2-4EAE-954F-BEED3CEC8599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -959,7 +959,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1175,6 +1175,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1420,7 +1426,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1457,9 +1463,6 @@
     <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="11" fontId="19" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1516,6 +1519,18 @@
     </xf>
     <xf numFmtId="11" fontId="19" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1875,7 +1890,7 @@
   <dimension ref="A1:O133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1929,1161 +1944,1161 @@
       <c r="J1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="O1" s="17" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="15">
         <v>100</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="15">
         <v>215</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="15">
         <v>14</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="15">
         <v>100</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="15">
         <v>100</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2" s="15">
         <v>100</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="15">
         <v>215</v>
       </c>
-      <c r="I2" s="16">
+      <c r="I2" s="15">
         <v>100</v>
       </c>
-      <c r="J2" s="16">
+      <c r="J2" s="15">
         <v>10776000</v>
       </c>
-      <c r="K2" s="16">
+      <c r="K2" s="15">
         <v>14</v>
       </c>
-      <c r="L2" s="16">
+      <c r="L2" s="15">
         <v>10776000</v>
       </c>
-      <c r="M2" s="16">
+      <c r="M2" s="15">
         <f t="shared" ref="M2:M10" si="0">(L2-K2)/K2</f>
         <v>769713.28571428568</v>
       </c>
-      <c r="N2" s="19"/>
+      <c r="N2" s="18"/>
       <c r="O2" s="11" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:15" s="34" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="32">
         <v>2.2799999999999998</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="32">
         <v>5</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="32">
         <v>0.15651999999999999</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="32">
         <v>0.680616</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="32">
         <v>5</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="32">
         <v>0.43</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="32">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="32">
         <v>1</v>
       </c>
-      <c r="J3" s="16">
+      <c r="J3" s="32">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="K3" s="16">
+      <c r="K3" s="32">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="L3" s="16">
+      <c r="L3" s="32">
         <v>5</v>
       </c>
-      <c r="M3" s="16">
+      <c r="M3" s="32">
         <f t="shared" si="0"/>
         <v>2082.3333333333335</v>
       </c>
-      <c r="N3" s="19"/>
-      <c r="O3" s="12" t="s">
+      <c r="N3" s="32"/>
+      <c r="O3" s="33" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="16">
         <v>4.0000000000000003E-15</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="16">
         <v>5.9000000000000002E-18</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="16">
         <v>1E-14</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="16">
         <v>5.9000000000000002E-18</v>
       </c>
-      <c r="L4" s="17">
+      <c r="L4" s="16">
         <v>1E-14</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="15">
         <f t="shared" si="0"/>
         <v>1693.9152542372881</v>
       </c>
-      <c r="N4" s="19"/>
-      <c r="O4" s="21" t="s">
+      <c r="N4" s="18"/>
+      <c r="O4" s="20" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="16">
         <v>3.0000000000000001E-6</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="16">
         <v>5.22E-6</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="16">
         <v>6.4999999999999996E-6</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="16">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="16">
         <v>3.4999999999999999E-6</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="16">
         <v>1.6300000000000001E-6</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="16">
         <v>1E-8</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="16">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="16">
         <v>5.3000000000000001E-6</v>
       </c>
-      <c r="K5" s="16">
+      <c r="K5" s="15">
         <v>1E-8</v>
       </c>
-      <c r="L5" s="16">
+      <c r="L5" s="15">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="M5" s="16">
+      <c r="M5" s="15">
         <f t="shared" si="0"/>
         <v>999.00000000000011</v>
       </c>
-      <c r="N5" s="19"/>
+      <c r="N5" s="18"/>
     </row>
     <row r="6" spans="1:15" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="15">
         <v>21725</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="15">
         <v>17038</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="15">
         <v>12630.8</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="15">
         <v>30730.755440000001</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="15">
         <v>31513</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="15">
         <v>20090</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="15">
         <v>35.3766672</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="15">
         <v>25777.5</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="15">
         <v>4631</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="15">
         <v>35.3766672</v>
       </c>
-      <c r="L6" s="16">
+      <c r="L6" s="15">
         <v>31513</v>
       </c>
-      <c r="M6" s="16">
+      <c r="M6" s="15">
         <f t="shared" si="0"/>
         <v>889.78487303066242</v>
       </c>
-      <c r="N6" s="19"/>
+      <c r="N6" s="18"/>
     </row>
     <row r="7" spans="1:15" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="15">
         <v>24108</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="15">
         <v>29866</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="15">
         <v>26120.05</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="15">
         <v>19986.6096</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="15">
         <v>48.868200000000002</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="15">
         <v>18081</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="15">
         <v>28831.457829999999</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="15">
         <v>22610.7</v>
       </c>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16">
+      <c r="J7" s="15"/>
+      <c r="K7" s="15">
         <v>48.868200000000002</v>
       </c>
-      <c r="L7" s="16">
+      <c r="L7" s="15">
         <v>29866</v>
       </c>
-      <c r="M7" s="16">
+      <c r="M7" s="15">
         <f t="shared" si="0"/>
         <v>610.154083841844</v>
       </c>
-      <c r="N7" s="19"/>
+      <c r="N7" s="18"/>
     </row>
     <row r="8" spans="1:15" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="15">
         <v>10</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="15">
         <v>0.18</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="15">
         <v>68.099999999999994</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="15">
         <v>10</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="15">
         <v>100</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="15">
         <v>10</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="15">
         <v>0.33795074000000003</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="15">
         <v>100</v>
       </c>
-      <c r="J8" s="16">
+      <c r="J8" s="15">
         <v>100</v>
       </c>
-      <c r="K8" s="16">
+      <c r="K8" s="15">
         <v>0.18</v>
       </c>
-      <c r="L8" s="16">
+      <c r="L8" s="15">
         <v>100</v>
       </c>
-      <c r="M8" s="16">
+      <c r="M8" s="15">
         <f t="shared" si="0"/>
         <v>554.55555555555554</v>
       </c>
-      <c r="N8" s="19"/>
+      <c r="N8" s="18"/>
     </row>
     <row r="9" spans="1:15" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="16">
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="16">
         <v>5.8599999999999998E-6</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="16">
         <v>1.3699999999999999E-5</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="16">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="16">
         <v>2.5000000000000002E-6</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="16">
         <v>5.0800000000000005E-7</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="16">
         <v>5.8599999999999998E-6</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="16">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="J9" s="16"/>
-      <c r="K9" s="17">
+      <c r="J9" s="15"/>
+      <c r="K9" s="16">
         <v>5.0829999999999997E-7</v>
       </c>
-      <c r="L9" s="16">
+      <c r="L9" s="15">
         <v>1.3699999999999999E-5</v>
       </c>
-      <c r="M9" s="16">
+      <c r="M9" s="15">
         <f t="shared" si="0"/>
         <v>25.952587054888845</v>
       </c>
-      <c r="N9" s="19"/>
+      <c r="N9" s="18"/>
     </row>
     <row r="10" spans="1:15" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="16">
         <v>7.6500000000000003E-5</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="16">
         <v>8.5199999999999997E-5</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="16">
         <v>7.3999999999999996E-5</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="15">
         <v>1E-4</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="16">
         <v>6.2000000000000003E-5</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="16">
         <v>6.9999999999999994E-5</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="16">
         <v>3.6000000000000001E-5</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="16">
         <v>8.7999999999999998E-5</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J10" s="15">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="K10" s="16">
+      <c r="K10" s="15">
         <v>3.6000000000000001E-5</v>
       </c>
-      <c r="L10" s="16">
+      <c r="L10" s="15">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="M10" s="16">
+      <c r="M10" s="15">
         <f t="shared" si="0"/>
         <v>18.444444444444443</v>
       </c>
-      <c r="N10" s="19"/>
+      <c r="N10" s="18"/>
     </row>
     <row r="11" spans="1:15" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="15">
         <v>35</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="15">
         <v>10</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="15">
         <v>10</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="15">
         <v>10</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="15">
         <v>5</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="15">
         <v>25</v>
       </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16">
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15">
         <v>5</v>
       </c>
-      <c r="L11" s="16">
+      <c r="L11" s="15">
         <v>35</v>
       </c>
-      <c r="M11" s="16">
+      <c r="M11" s="15">
         <f t="shared" ref="M11:M43" si="1">(L11-K11)/K11</f>
         <v>6</v>
       </c>
-      <c r="N11" s="19"/>
+      <c r="N11" s="18"/>
     </row>
     <row r="12" spans="1:15" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="15">
         <v>2470</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="15">
         <v>397</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="15">
         <v>1017</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="15">
         <v>397</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="15">
         <v>397</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="15">
         <v>511.86797999999999</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12" s="15">
         <v>397</v>
       </c>
-      <c r="I12" s="16">
+      <c r="I12" s="15">
         <v>1017</v>
       </c>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16">
+      <c r="J12" s="15"/>
+      <c r="K12" s="15">
         <v>397</v>
       </c>
-      <c r="L12" s="16">
+      <c r="L12" s="15">
         <v>2470</v>
       </c>
-      <c r="M12" s="16">
+      <c r="M12" s="15">
         <f t="shared" si="1"/>
         <v>5.2216624685138537</v>
       </c>
-      <c r="N12" s="19"/>
+      <c r="N12" s="18"/>
     </row>
     <row r="13" spans="1:15" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="15">
         <v>0.33400000000000002</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="15">
         <v>0.16</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="15">
         <v>0.34</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="15">
         <v>0.16</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="15">
         <v>0.16</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="15">
         <v>0.10672</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13" s="15">
         <v>0.16</v>
       </c>
-      <c r="I13" s="16">
+      <c r="I13" s="15">
         <v>0.34</v>
       </c>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16">
+      <c r="J13" s="15"/>
+      <c r="K13" s="15">
         <v>0.10672</v>
       </c>
-      <c r="L13" s="16">
+      <c r="L13" s="15">
         <v>0.34</v>
       </c>
-      <c r="M13" s="16">
+      <c r="M13" s="15">
         <f t="shared" si="1"/>
         <v>2.1859070464767623</v>
       </c>
-      <c r="N13" s="19"/>
+      <c r="N13" s="18"/>
     </row>
     <row r="14" spans="1:15" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="15">
         <v>0.32</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="15">
         <v>0.33500000000000002</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="15">
         <v>0.29599999999999999</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="15">
         <v>0.3</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="15">
         <v>0.3</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="15">
         <v>0.4</v>
       </c>
-      <c r="H14" s="16">
+      <c r="H14" s="15">
         <v>0.12728395000000001</v>
       </c>
-      <c r="I14" s="16">
+      <c r="I14" s="15">
         <v>0.38500000000000001</v>
       </c>
-      <c r="J14" s="16">
+      <c r="J14" s="15">
         <v>0.33100000000000002</v>
       </c>
-      <c r="K14" s="16">
+      <c r="K14" s="15">
         <v>0.12728395000000001</v>
       </c>
-      <c r="L14" s="16">
+      <c r="L14" s="15">
         <v>0.4</v>
       </c>
-      <c r="M14" s="16">
+      <c r="M14" s="15">
         <f t="shared" si="1"/>
         <v>2.1425800346390882</v>
       </c>
-      <c r="N14" s="19"/>
+      <c r="N14" s="18"/>
     </row>
     <row r="15" spans="1:15" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="15">
         <v>1080.2</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="15">
         <v>700</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="15">
         <v>1978</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="15">
         <v>700</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="15">
         <v>700</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G15" s="15">
         <v>700</v>
       </c>
-      <c r="H15" s="16">
+      <c r="H15" s="15">
         <v>700</v>
       </c>
-      <c r="I15" s="16">
+      <c r="I15" s="15">
         <v>1978</v>
       </c>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16">
+      <c r="J15" s="15"/>
+      <c r="K15" s="15">
         <v>700</v>
       </c>
-      <c r="L15" s="16">
+      <c r="L15" s="15">
         <v>1978</v>
       </c>
-      <c r="M15" s="16">
+      <c r="M15" s="15">
         <f t="shared" si="1"/>
         <v>1.8257142857142856</v>
       </c>
-      <c r="N15" s="19"/>
+      <c r="N15" s="18"/>
     </row>
     <row r="16" spans="1:15" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="15">
         <v>49943</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="15">
         <v>63104</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="15">
         <v>48580</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="15">
         <v>51217.925730000003</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F16" s="15">
         <v>35380</v>
       </c>
-      <c r="G16" s="16">
+      <c r="G16" s="15">
         <v>49000</v>
       </c>
-      <c r="H16" s="16">
+      <c r="H16" s="15">
         <v>22806</v>
       </c>
-      <c r="I16" s="16">
+      <c r="I16" s="15">
         <v>51555</v>
       </c>
-      <c r="J16" s="16">
+      <c r="J16" s="15">
         <v>48230</v>
       </c>
-      <c r="K16" s="16">
+      <c r="K16" s="15">
         <v>22806</v>
       </c>
-      <c r="L16" s="16">
+      <c r="L16" s="15">
         <v>63104</v>
       </c>
-      <c r="M16" s="16">
+      <c r="M16" s="15">
         <f t="shared" si="1"/>
         <v>1.7669911426817504</v>
       </c>
-      <c r="N16" s="19"/>
+      <c r="N16" s="18"/>
     </row>
     <row r="17" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="15">
         <v>2.9140000000000001</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="15">
         <v>1.5</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="15">
         <v>1.637278934</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="15">
         <v>1.5</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F17" s="15">
         <v>1.5</v>
       </c>
-      <c r="G17" s="16">
+      <c r="G17" s="15">
         <v>2</v>
       </c>
-      <c r="H17" s="16">
+      <c r="H17" s="15">
         <v>1.5</v>
       </c>
-      <c r="I17" s="16">
+      <c r="I17" s="15">
         <v>4</v>
       </c>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16">
+      <c r="J17" s="15"/>
+      <c r="K17" s="15">
         <v>1.5</v>
       </c>
-      <c r="L17" s="16">
+      <c r="L17" s="15">
         <v>4</v>
       </c>
-      <c r="M17" s="16">
+      <c r="M17" s="15">
         <f t="shared" si="1"/>
         <v>1.6666666666666667</v>
       </c>
-      <c r="N17" s="19"/>
+      <c r="N17" s="18"/>
     </row>
     <row r="18" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="15">
         <v>1.83</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="15">
         <v>1.5</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="15">
         <v>1.5442267190000001</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="15">
         <v>1.5</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="15">
         <v>1.5</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G18" s="15">
         <v>2</v>
       </c>
-      <c r="H18" s="16">
+      <c r="H18" s="15">
         <v>1.5</v>
       </c>
-      <c r="I18" s="16">
+      <c r="I18" s="15">
         <v>4</v>
       </c>
-      <c r="J18" s="16">
+      <c r="J18" s="15">
         <v>1.5</v>
       </c>
-      <c r="K18" s="16">
+      <c r="K18" s="15">
         <v>1.5</v>
       </c>
-      <c r="L18" s="16">
+      <c r="L18" s="15">
         <v>4</v>
       </c>
-      <c r="M18" s="16">
+      <c r="M18" s="15">
         <f t="shared" si="1"/>
         <v>1.6666666666666667</v>
       </c>
-      <c r="N18" s="19"/>
+      <c r="N18" s="18"/>
     </row>
     <row r="19" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B19" s="15">
         <v>0.5</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="15">
         <v>0.47</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="15">
         <v>0.50800000000000001</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="15">
         <v>1</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F19" s="15">
         <v>0.4</v>
       </c>
-      <c r="G19" s="16">
+      <c r="G19" s="15">
         <v>0.4</v>
       </c>
-      <c r="H19" s="16">
+      <c r="H19" s="15">
         <v>0.47</v>
       </c>
-      <c r="I19" s="16">
+      <c r="I19" s="15">
         <v>0.50800000000000001</v>
       </c>
-      <c r="J19" s="16">
+      <c r="J19" s="15">
         <v>0.39</v>
       </c>
-      <c r="K19" s="16">
+      <c r="K19" s="15">
         <v>0.39</v>
       </c>
-      <c r="L19" s="16">
+      <c r="L19" s="15">
         <v>1</v>
       </c>
-      <c r="M19" s="16">
+      <c r="M19" s="15">
         <f t="shared" si="1"/>
         <v>1.5641025641025641</v>
       </c>
-      <c r="N19" s="19"/>
+      <c r="N19" s="18"/>
     </row>
     <row r="20" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="17">
+      <c r="B20" s="16">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="16">
         <v>1.2E-5</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D20" s="16">
         <v>1.4E-5</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="16">
         <v>2.5000000000000001E-5</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F20" s="16">
         <v>2.5000000000000001E-5</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G20" s="16">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="H20" s="17">
+      <c r="H20" s="16">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="I20" s="17">
+      <c r="I20" s="16">
         <v>1.7E-5</v>
       </c>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16">
+      <c r="J20" s="15"/>
+      <c r="K20" s="15">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="L20" s="16">
+      <c r="L20" s="15">
         <v>2.5000000000000001E-5</v>
       </c>
-      <c r="M20" s="16">
+      <c r="M20" s="15">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="N20" s="19"/>
+      <c r="N20" s="18"/>
     </row>
     <row r="21" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="17">
+      <c r="B21" s="16">
         <v>1.5E-5</v>
       </c>
-      <c r="C21" s="17">
+      <c r="C21" s="16">
         <v>1.5999999999999999E-5</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="16">
         <v>1.5E-5</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="16">
         <v>2.5000000000000001E-5</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F21" s="16">
         <v>2.5000000000000001E-5</v>
       </c>
-      <c r="G21" s="17">
+      <c r="G21" s="16">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="H21" s="17">
+      <c r="H21" s="16">
         <v>1.9000000000000001E-5</v>
       </c>
-      <c r="I21" s="17">
+      <c r="I21" s="16">
         <v>2.3E-5</v>
       </c>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16">
+      <c r="J21" s="15"/>
+      <c r="K21" s="15">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="L21" s="16">
+      <c r="L21" s="15">
         <v>2.5000000000000001E-5</v>
       </c>
-      <c r="M21" s="16">
+      <c r="M21" s="15">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="N21" s="19"/>
+      <c r="N21" s="18"/>
     </row>
     <row r="22" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="17">
+      <c r="B22" s="16">
         <v>6.7999999999999999E-5</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22" s="16">
         <v>7.5599999999999994E-5</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D22" s="16">
         <v>5.3999999999999998E-5</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E22" s="15">
         <v>1E-4</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22" s="16">
         <v>6.7000000000000002E-5</v>
       </c>
-      <c r="G22" s="17">
+      <c r="G22" s="16">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="H22" s="17">
+      <c r="H22" s="16">
         <v>8.1000000000000004E-5</v>
       </c>
-      <c r="I22" s="17">
+      <c r="I22" s="16">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="J22" s="17">
+      <c r="J22" s="16">
         <v>4.1999999999999998E-5</v>
       </c>
-      <c r="K22" s="16">
+      <c r="K22" s="15">
         <v>4.1999999999999998E-5</v>
       </c>
-      <c r="L22" s="16">
+      <c r="L22" s="15">
         <v>1E-4</v>
       </c>
-      <c r="M22" s="16">
+      <c r="M22" s="15">
         <f t="shared" si="1"/>
         <v>1.3809523809523812</v>
       </c>
-      <c r="N22" s="19"/>
+      <c r="N22" s="18"/>
     </row>
     <row r="23" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="B23" s="16">
+      <c r="B23" s="15">
         <v>0.62</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C23" s="15">
         <v>0.66500000000000004</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="15">
         <v>0.40832000000000002</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E23" s="15">
         <v>0.5</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F23" s="15">
         <v>0.44500000000000001</v>
       </c>
-      <c r="G23" s="16">
+      <c r="G23" s="15">
         <v>0.41</v>
       </c>
-      <c r="H23" s="16">
+      <c r="H23" s="15">
         <v>0.28485556000000001</v>
       </c>
-      <c r="I23" s="16">
+      <c r="I23" s="15">
         <v>0.59</v>
       </c>
-      <c r="J23" s="16">
+      <c r="J23" s="15">
         <v>0.51800000000000002</v>
       </c>
-      <c r="K23" s="16">
+      <c r="K23" s="15">
         <v>0.28485556000000001</v>
       </c>
-      <c r="L23" s="16">
+      <c r="L23" s="15">
         <v>0.66500000000000004</v>
       </c>
-      <c r="M23" s="16">
+      <c r="M23" s="15">
         <f t="shared" si="1"/>
         <v>1.3345164826693221</v>
       </c>
-      <c r="N23" s="19"/>
-    </row>
-    <row r="24" spans="1:14" s="30" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="28" t="s">
+      <c r="N23" s="18"/>
+    </row>
+    <row r="24" spans="1:14" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="31">
+      <c r="B24" s="30">
         <v>2.5000000000000001E-5</v>
       </c>
-      <c r="C24" s="31">
+      <c r="C24" s="30">
         <v>1.2E-5</v>
       </c>
-      <c r="D24" s="31">
+      <c r="D24" s="30">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="E24" s="31">
+      <c r="E24" s="30">
         <v>2.5000000000000001E-5</v>
       </c>
-      <c r="F24" s="31">
+      <c r="F24" s="30">
         <v>1.2E-5</v>
       </c>
-      <c r="G24" s="31">
+      <c r="G24" s="30">
         <v>2.5000000000000001E-5</v>
       </c>
-      <c r="H24" s="31">
+      <c r="H24" s="30">
         <v>1.8E-5</v>
       </c>
-      <c r="I24" s="31">
+      <c r="I24" s="30">
         <v>2.5000000000000001E-5</v>
       </c>
-      <c r="J24" s="31">
+      <c r="J24" s="30">
         <v>2.5000000000000001E-5</v>
       </c>
-      <c r="K24" s="29">
+      <c r="K24" s="28">
         <v>1.2E-5</v>
       </c>
-      <c r="L24" s="29">
+      <c r="L24" s="28">
         <v>2.5000000000000001E-5</v>
       </c>
-      <c r="M24" s="29">
+      <c r="M24" s="28">
         <f t="shared" si="1"/>
         <v>1.0833333333333335</v>
       </c>
-      <c r="N24" s="29"/>
+      <c r="N24" s="28"/>
     </row>
     <row r="25" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="B25" s="16">
+      <c r="B25" s="15">
         <v>1080.2</v>
       </c>
-      <c r="C25" s="16">
+      <c r="C25" s="15">
         <v>700</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D25" s="15">
         <v>1437</v>
       </c>
-      <c r="E25" s="16">
+      <c r="E25" s="15">
         <v>700</v>
       </c>
-      <c r="F25" s="16">
+      <c r="F25" s="15">
         <v>1100</v>
       </c>
-      <c r="G25" s="16">
+      <c r="G25" s="15">
         <v>700</v>
       </c>
-      <c r="H25" s="16">
+      <c r="H25" s="15">
         <v>700</v>
       </c>
-      <c r="I25" s="16">
+      <c r="I25" s="15">
         <v>700</v>
       </c>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16">
+      <c r="J25" s="15"/>
+      <c r="K25" s="15">
         <v>700</v>
       </c>
-      <c r="L25" s="16">
+      <c r="L25" s="15">
         <v>1437</v>
       </c>
-      <c r="M25" s="16">
+      <c r="M25" s="15">
         <f t="shared" si="1"/>
         <v>1.0528571428571429</v>
       </c>
-      <c r="N25" s="19"/>
+      <c r="N25" s="18"/>
     </row>
     <row r="26" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="B26" s="16">
+      <c r="B26" s="15">
         <v>1.58</v>
       </c>
-      <c r="C26" s="16">
+      <c r="C26" s="15">
         <v>2.1</v>
       </c>
-      <c r="D26" s="16">
+      <c r="D26" s="15">
         <v>1.04</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E26" s="15">
         <v>2.1</v>
       </c>
-      <c r="F26" s="16">
+      <c r="F26" s="15">
         <v>2.1</v>
       </c>
-      <c r="G26" s="16">
+      <c r="G26" s="15">
         <v>1.4007000000000001</v>
       </c>
-      <c r="H26" s="16">
+      <c r="H26" s="15">
         <v>2.1</v>
       </c>
-      <c r="I26" s="16">
+      <c r="I26" s="15">
         <v>2.1</v>
       </c>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16">
+      <c r="J26" s="15"/>
+      <c r="K26" s="15">
         <v>1.04</v>
       </c>
-      <c r="L26" s="16">
+      <c r="L26" s="15">
         <v>2.1</v>
       </c>
-      <c r="M26" s="16">
+      <c r="M26" s="15">
         <f t="shared" si="1"/>
         <v>1.0192307692307692</v>
       </c>
-      <c r="N26" s="19"/>
+      <c r="N26" s="18"/>
     </row>
     <row r="27" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="16">
+      <c r="B27" s="15">
         <v>0.61</v>
       </c>
-      <c r="C27" s="16">
+      <c r="C27" s="15">
         <v>0.75</v>
       </c>
-      <c r="D27" s="16">
+      <c r="D27" s="15">
         <v>0.37240299999999998</v>
       </c>
-      <c r="E27" s="16">
+      <c r="E27" s="15">
         <v>0.6</v>
       </c>
-      <c r="F27" s="16">
+      <c r="F27" s="15">
         <v>0.61</v>
       </c>
-      <c r="G27" s="16">
+      <c r="G27" s="15">
         <v>0.51</v>
       </c>
-      <c r="H27" s="16">
+      <c r="H27" s="15">
         <v>0.75</v>
       </c>
-      <c r="I27" s="16">
+      <c r="I27" s="15">
         <v>0.49</v>
       </c>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16">
+      <c r="J27" s="15"/>
+      <c r="K27" s="15">
         <v>0.37240299999999998</v>
       </c>
-      <c r="L27" s="16">
+      <c r="L27" s="15">
         <v>0.75</v>
       </c>
-      <c r="M27" s="16">
+      <c r="M27" s="15">
         <f t="shared" si="1"/>
         <v>1.0139472560639953</v>
       </c>
-      <c r="N27" s="19"/>
+      <c r="N27" s="18"/>
     </row>
     <row r="28" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="B28" s="16">
+      <c r="B28" s="15">
         <v>2470</v>
       </c>
-      <c r="C28" s="16">
+      <c r="C28" s="15">
         <v>1657</v>
       </c>
-      <c r="D28" s="16">
+      <c r="D28" s="15">
         <v>1555</v>
       </c>
-      <c r="E28" s="16">
+      <c r="E28" s="15">
         <v>1657</v>
       </c>
-      <c r="F28" s="16">
+      <c r="F28" s="15">
         <v>3100</v>
       </c>
-      <c r="G28" s="16">
+      <c r="G28" s="15">
         <v>2136.4363800000001</v>
       </c>
-      <c r="H28" s="16">
+      <c r="H28" s="15">
         <v>1657</v>
       </c>
-      <c r="I28" s="16">
+      <c r="I28" s="15">
         <v>1657</v>
       </c>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16">
+      <c r="J28" s="15"/>
+      <c r="K28" s="15">
         <v>1555</v>
       </c>
-      <c r="L28" s="16">
+      <c r="L28" s="15">
         <v>3100</v>
       </c>
-      <c r="M28" s="16">
+      <c r="M28" s="15">
         <f t="shared" si="1"/>
         <v>0.99356913183279738</v>
       </c>
-      <c r="N28" s="19"/>
+      <c r="N28" s="18"/>
     </row>
     <row r="29" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
@@ -3124,7 +3139,7 @@
         <f t="shared" si="1"/>
         <v>0.94</v>
       </c>
-      <c r="N29" s="19"/>
+      <c r="N29" s="18"/>
     </row>
     <row r="30" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
@@ -3165,7 +3180,7 @@
         <f t="shared" si="1"/>
         <v>0.81428571428571428</v>
       </c>
-      <c r="N30" s="19"/>
+      <c r="N30" s="18"/>
     </row>
     <row r="31" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
@@ -3206,7 +3221,7 @@
         <f t="shared" si="1"/>
         <v>0.79646376811594199</v>
       </c>
-      <c r="N31" s="19"/>
+      <c r="N31" s="18"/>
     </row>
     <row r="32" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
@@ -3247,7 +3262,7 @@
         <f t="shared" si="1"/>
         <v>0.63461538461538447</v>
       </c>
-      <c r="N32" s="19"/>
+      <c r="N32" s="18"/>
     </row>
     <row r="33" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
@@ -3290,7 +3305,7 @@
         <f t="shared" si="1"/>
         <v>0.54202004626060141</v>
       </c>
-      <c r="N33" s="19"/>
+      <c r="N33" s="18"/>
     </row>
     <row r="34" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
@@ -3331,7 +3346,7 @@
         <f t="shared" si="1"/>
         <v>0.50557632576116995</v>
       </c>
-      <c r="N34" s="19"/>
+      <c r="N34" s="18"/>
     </row>
     <row r="35" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
@@ -3372,7 +3387,7 @@
         <f t="shared" si="1"/>
         <v>0.49925037481259377</v>
       </c>
-      <c r="N35" s="19"/>
+      <c r="N35" s="18"/>
     </row>
     <row r="36" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
@@ -3415,7 +3430,7 @@
         <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="N36" s="19"/>
+      <c r="N36" s="18"/>
     </row>
     <row r="37" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
@@ -3456,89 +3471,89 @@
         <f t="shared" si="1"/>
         <v>0.32620792325926379</v>
       </c>
-      <c r="N37" s="19"/>
-    </row>
-    <row r="38" spans="1:14" s="30" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="28" t="s">
+      <c r="N37" s="18"/>
+    </row>
+    <row r="38" spans="1:14" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="29">
+      <c r="B38" s="28">
         <v>2700</v>
       </c>
-      <c r="C38" s="29">
+      <c r="C38" s="28">
         <v>2700</v>
       </c>
-      <c r="D38" s="29">
+      <c r="D38" s="28">
         <v>2702</v>
       </c>
-      <c r="E38" s="29">
+      <c r="E38" s="28">
         <v>2707</v>
       </c>
-      <c r="F38" s="29">
+      <c r="F38" s="28">
         <v>2707</v>
       </c>
-      <c r="G38" s="29">
+      <c r="G38" s="28">
         <v>3490.2433799999999</v>
       </c>
-      <c r="H38" s="29">
+      <c r="H38" s="28">
         <v>2700</v>
       </c>
-      <c r="I38" s="29">
+      <c r="I38" s="28">
         <v>2707</v>
       </c>
-      <c r="J38" s="29"/>
-      <c r="K38" s="29">
+      <c r="J38" s="28"/>
+      <c r="K38" s="28">
         <v>2700</v>
       </c>
-      <c r="L38" s="29">
+      <c r="L38" s="28">
         <v>3490.2433799999999</v>
       </c>
-      <c r="M38" s="29">
+      <c r="M38" s="28">
         <f t="shared" si="1"/>
         <v>0.29268273333333328</v>
       </c>
-      <c r="N38" s="29"/>
-    </row>
-    <row r="39" spans="1:14" s="30" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="28" t="s">
+      <c r="N38" s="28"/>
+    </row>
+    <row r="39" spans="1:14" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="29">
+      <c r="B39" s="28">
         <v>8960</v>
       </c>
-      <c r="C39" s="29">
+      <c r="C39" s="28">
         <v>8960</v>
       </c>
-      <c r="D39" s="29">
+      <c r="D39" s="28">
         <v>8933</v>
       </c>
-      <c r="E39" s="29">
+      <c r="E39" s="28">
         <v>8954</v>
       </c>
-      <c r="F39" s="29">
+      <c r="F39" s="28">
         <v>8954</v>
       </c>
-      <c r="G39" s="29">
+      <c r="G39" s="28">
         <v>11544.75</v>
       </c>
-      <c r="H39" s="29">
+      <c r="H39" s="28">
         <v>8960</v>
       </c>
-      <c r="I39" s="29">
+      <c r="I39" s="28">
         <v>8954</v>
       </c>
-      <c r="J39" s="29"/>
-      <c r="K39" s="29">
+      <c r="J39" s="28"/>
+      <c r="K39" s="28">
         <v>8933</v>
       </c>
-      <c r="L39" s="29">
+      <c r="L39" s="28">
         <v>11544.75</v>
       </c>
-      <c r="M39" s="29">
+      <c r="M39" s="28">
         <f t="shared" si="1"/>
         <v>0.29237098399194</v>
       </c>
-      <c r="N39" s="29"/>
+      <c r="N39" s="28"/>
     </row>
     <row r="40" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
@@ -3581,7 +3596,7 @@
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
-      <c r="N40" s="19"/>
+      <c r="N40" s="18"/>
     </row>
     <row r="41" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
@@ -3622,7 +3637,7 @@
         <f t="shared" si="1"/>
         <v>6.4788732394366194E-2</v>
       </c>
-      <c r="N41" s="19"/>
+      <c r="N41" s="18"/>
     </row>
     <row r="42" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
@@ -3663,7 +3678,7 @@
         <f t="shared" si="1"/>
         <v>2.0355754909178066E-2</v>
       </c>
-      <c r="N42" s="19"/>
+      <c r="N42" s="18"/>
     </row>
     <row r="43" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
@@ -3704,7 +3719,7 @@
         <f t="shared" si="1"/>
         <v>6.688963210702341E-3</v>
       </c>
-      <c r="N43" s="19"/>
+      <c r="N43" s="18"/>
     </row>
     <row r="44" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
@@ -3743,8 +3758,8 @@
       <c r="L44" s="10">
         <v>34</v>
       </c>
-      <c r="M44" s="19"/>
-      <c r="N44" s="19"/>
+      <c r="M44" s="18"/>
+      <c r="N44" s="18"/>
     </row>
     <row r="45" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
@@ -3783,8 +3798,8 @@
       <c r="L45" s="10">
         <v>3.5</v>
       </c>
-      <c r="M45" s="19"/>
-      <c r="N45" s="19"/>
+      <c r="M45" s="18"/>
+      <c r="N45" s="18"/>
     </row>
     <row r="46" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
@@ -3823,8 +3838,8 @@
       <c r="L46" s="10">
         <v>4.4000000000000004</v>
       </c>
-      <c r="M46" s="19"/>
-      <c r="N46" s="19"/>
+      <c r="M46" s="18"/>
+      <c r="N46" s="18"/>
     </row>
     <row r="47" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
@@ -3863,8 +3878,8 @@
       <c r="L47" s="10">
         <v>5</v>
       </c>
-      <c r="M47" s="19"/>
-      <c r="N47" s="19"/>
+      <c r="M47" s="18"/>
+      <c r="N47" s="18"/>
     </row>
     <row r="48" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
@@ -3903,8 +3918,8 @@
       <c r="L48" s="10">
         <v>1</v>
       </c>
-      <c r="M48" s="19"/>
-      <c r="N48" s="19"/>
+      <c r="M48" s="18"/>
+      <c r="N48" s="18"/>
     </row>
     <row r="49" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
@@ -3943,8 +3958,8 @@
       <c r="L49" s="10">
         <v>1.78</v>
       </c>
-      <c r="M49" s="19"/>
-      <c r="N49" s="19"/>
+      <c r="M49" s="18"/>
+      <c r="N49" s="18"/>
     </row>
     <row r="50" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
@@ -3977,29 +3992,29 @@
       <c r="L50" s="10">
         <v>0.41</v>
       </c>
-      <c r="M50" s="19"/>
-      <c r="N50" s="19"/>
+      <c r="M50" s="18"/>
+      <c r="N50" s="18"/>
     </row>
     <row r="51" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B51" s="13">
+      <c r="B51" s="12">
         <v>1.5299999999999999E-5</v>
       </c>
-      <c r="C51" s="13">
+      <c r="C51" s="12">
         <v>2.4199999999999999E-5</v>
       </c>
-      <c r="D51" s="13">
+      <c r="D51" s="12">
         <v>1.5200000000000001E-6</v>
       </c>
-      <c r="E51" s="13">
+      <c r="E51" s="12">
         <v>7.7999999999999999E-6</v>
       </c>
-      <c r="F51" s="13">
+      <c r="F51" s="12">
         <v>3.9199999999999997E-5</v>
       </c>
-      <c r="G51" s="13">
+      <c r="G51" s="12">
         <v>4.6199999999999998E-6</v>
       </c>
       <c r="H51" s="10"/>
@@ -4011,2542 +4026,2542 @@
       <c r="L51" s="10">
         <v>3.9199999999999997E-5</v>
       </c>
-      <c r="M51" s="19"/>
-      <c r="N51" s="19"/>
+      <c r="M51" s="18"/>
+      <c r="N51" s="18"/>
     </row>
     <row r="52" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="22" t="s">
+      <c r="A52" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B52" s="23">
+      <c r="B52" s="22">
         <v>8.3144626180000003</v>
       </c>
-      <c r="C52" s="23">
+      <c r="C52" s="22">
         <v>8.3144626180000003</v>
       </c>
-      <c r="D52" s="23">
+      <c r="D52" s="22">
         <v>8.3144626180000003</v>
       </c>
-      <c r="E52" s="23">
+      <c r="E52" s="22">
         <v>8.3144626180000003</v>
       </c>
-      <c r="F52" s="23">
+      <c r="F52" s="22">
         <v>8.3144626180000003</v>
       </c>
-      <c r="G52" s="23">
+      <c r="G52" s="22">
         <v>8.3144626180000003</v>
       </c>
-      <c r="H52" s="23">
+      <c r="H52" s="22">
         <v>8.3144626180000003</v>
       </c>
-      <c r="I52" s="23">
+      <c r="I52" s="22">
         <v>8.3144626180000003</v>
       </c>
-      <c r="J52" s="23">
+      <c r="J52" s="22">
         <v>8.3144626180000003</v>
       </c>
-      <c r="K52" s="23">
+      <c r="K52" s="22">
         <v>8.3144626180000003</v>
       </c>
-      <c r="L52" s="23">
+      <c r="L52" s="22">
         <v>8.3144626180000003</v>
       </c>
       <c r="M52" s="2"/>
-      <c r="N52" s="19"/>
+      <c r="N52" s="18"/>
     </row>
     <row r="53" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="22" t="s">
+      <c r="A53" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B53" s="23">
+      <c r="B53" s="22">
         <v>96485.332120000006</v>
       </c>
-      <c r="C53" s="23">
+      <c r="C53" s="22">
         <v>96485.332120000006</v>
       </c>
-      <c r="D53" s="23">
+      <c r="D53" s="22">
         <v>96485.332120000006</v>
       </c>
-      <c r="E53" s="23">
+      <c r="E53" s="22">
         <v>96485.332120000006</v>
       </c>
-      <c r="F53" s="23">
+      <c r="F53" s="22">
         <v>96485.332120000006</v>
       </c>
-      <c r="G53" s="23">
+      <c r="G53" s="22">
         <v>96485.332120000006</v>
       </c>
-      <c r="H53" s="23">
+      <c r="H53" s="22">
         <v>96485.332120000006</v>
       </c>
-      <c r="I53" s="23">
+      <c r="I53" s="22">
         <v>96485.332120000006</v>
       </c>
-      <c r="J53" s="23">
+      <c r="J53" s="22">
         <v>96485.332120000006</v>
       </c>
-      <c r="K53" s="23">
+      <c r="K53" s="22">
         <v>96485.332120000006</v>
       </c>
-      <c r="L53" s="23">
+      <c r="L53" s="22">
         <v>96485.332120000006</v>
       </c>
       <c r="M53" s="2"/>
-      <c r="N53" s="19"/>
+      <c r="N53" s="18"/>
     </row>
     <row r="54" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="22" t="s">
+      <c r="A54" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B54" s="24">
+      <c r="B54" s="23">
         <v>1.3800000000000001E-23</v>
       </c>
-      <c r="C54" s="24">
+      <c r="C54" s="23">
         <v>1.3800000000000001E-23</v>
       </c>
-      <c r="D54" s="24">
+      <c r="D54" s="23">
         <v>1.3800000000000001E-23</v>
       </c>
-      <c r="E54" s="24">
+      <c r="E54" s="23">
         <v>1.3800000000000001E-23</v>
       </c>
-      <c r="F54" s="24">
+      <c r="F54" s="23">
         <v>1.3800000000000001E-23</v>
       </c>
-      <c r="G54" s="24">
+      <c r="G54" s="23">
         <v>1.3800000000000001E-23</v>
       </c>
-      <c r="H54" s="24">
+      <c r="H54" s="23">
         <v>1.3800000000000001E-23</v>
       </c>
-      <c r="I54" s="24">
+      <c r="I54" s="23">
         <v>1.3800000000000001E-23</v>
       </c>
-      <c r="J54" s="24">
+      <c r="J54" s="23">
         <v>1.3800000000000001E-23</v>
       </c>
-      <c r="K54" s="24">
+      <c r="K54" s="23">
         <v>1.38065E-23</v>
       </c>
-      <c r="L54" s="24">
+      <c r="L54" s="23">
         <v>1.38065E-23</v>
       </c>
       <c r="M54" s="3"/>
-      <c r="N54" s="20"/>
+      <c r="N54" s="19"/>
     </row>
     <row r="55" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="22" t="s">
+      <c r="A55" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B55" s="24">
+      <c r="B55" s="23">
         <v>1.5999999999999999E-19</v>
       </c>
-      <c r="C55" s="24">
+      <c r="C55" s="23">
         <v>1.5999999999999999E-19</v>
       </c>
-      <c r="D55" s="24">
+      <c r="D55" s="23">
         <v>1.5999999999999999E-19</v>
       </c>
-      <c r="E55" s="24">
+      <c r="E55" s="23">
         <v>1.5999999999999999E-19</v>
       </c>
-      <c r="F55" s="24">
+      <c r="F55" s="23">
         <v>1.5999999999999999E-19</v>
       </c>
-      <c r="G55" s="24">
+      <c r="G55" s="23">
         <v>1.5999999999999999E-19</v>
       </c>
-      <c r="H55" s="24">
+      <c r="H55" s="23">
         <v>1.5999999999999999E-19</v>
       </c>
-      <c r="I55" s="24">
+      <c r="I55" s="23">
         <v>1.5999999999999999E-19</v>
       </c>
-      <c r="J55" s="24">
+      <c r="J55" s="23">
         <v>1.5999999999999999E-19</v>
       </c>
-      <c r="K55" s="24">
+      <c r="K55" s="23">
         <v>1.60218E-19</v>
       </c>
-      <c r="L55" s="24">
+      <c r="L55" s="23">
         <v>1.60218E-19</v>
       </c>
       <c r="M55" s="3"/>
-      <c r="N55" s="20"/>
+      <c r="N55" s="19"/>
     </row>
     <row r="56" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="22" t="s">
+      <c r="A56" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B56" s="23">
+      <c r="B56" s="22">
         <v>2</v>
       </c>
-      <c r="C56" s="23">
+      <c r="C56" s="22">
         <v>2</v>
       </c>
-      <c r="D56" s="23">
+      <c r="D56" s="22">
         <v>2</v>
       </c>
-      <c r="E56" s="23">
+      <c r="E56" s="22">
         <v>2</v>
       </c>
-      <c r="F56" s="23">
+      <c r="F56" s="22">
         <v>2</v>
       </c>
-      <c r="G56" s="23">
+      <c r="G56" s="22">
         <v>2</v>
       </c>
-      <c r="H56" s="23"/>
-      <c r="I56" s="23">
+      <c r="H56" s="22"/>
+      <c r="I56" s="22">
         <v>2</v>
       </c>
-      <c r="J56" s="23">
+      <c r="J56" s="22">
         <v>2</v>
       </c>
-      <c r="K56" s="23">
+      <c r="K56" s="22">
         <v>2</v>
       </c>
-      <c r="L56" s="23">
+      <c r="L56" s="22">
         <v>2</v>
       </c>
       <c r="M56" s="2"/>
-      <c r="N56" s="19"/>
+      <c r="N56" s="18"/>
     </row>
     <row r="57" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="22" t="s">
+      <c r="A57" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B57" s="23">
+      <c r="B57" s="22">
         <v>0.5</v>
       </c>
-      <c r="C57" s="23">
+      <c r="C57" s="22">
         <v>0.5</v>
       </c>
-      <c r="D57" s="23">
+      <c r="D57" s="22">
         <v>0.5</v>
       </c>
-      <c r="E57" s="23">
+      <c r="E57" s="22">
         <v>0.5</v>
       </c>
-      <c r="F57" s="23">
+      <c r="F57" s="22">
         <v>0.5</v>
       </c>
-      <c r="G57" s="23">
+      <c r="G57" s="22">
         <v>0.5</v>
       </c>
-      <c r="H57" s="23"/>
-      <c r="I57" s="23">
+      <c r="H57" s="22"/>
+      <c r="I57" s="22">
         <v>0.5</v>
       </c>
-      <c r="J57" s="23">
+      <c r="J57" s="22">
         <v>0.5</v>
       </c>
-      <c r="K57" s="23">
+      <c r="K57" s="22">
         <v>0.5</v>
       </c>
-      <c r="L57" s="23">
+      <c r="L57" s="22">
         <v>0.5</v>
       </c>
       <c r="M57" s="2"/>
-      <c r="N57" s="19"/>
+      <c r="N57" s="18"/>
     </row>
     <row r="58" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="22" t="s">
+      <c r="A58" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B58" s="24">
+      <c r="B58" s="23">
         <v>9.59E-5</v>
       </c>
-      <c r="C58" s="24">
+      <c r="C58" s="23">
         <v>9.59E-5</v>
       </c>
-      <c r="D58" s="24">
+      <c r="D58" s="23">
         <v>9.59E-5</v>
       </c>
-      <c r="E58" s="24">
+      <c r="E58" s="23">
         <v>9.59E-5</v>
       </c>
-      <c r="F58" s="24">
+      <c r="F58" s="23">
         <v>9.59E-5</v>
       </c>
-      <c r="G58" s="24">
+      <c r="G58" s="23">
         <v>9.59E-5</v>
       </c>
-      <c r="H58" s="23"/>
-      <c r="I58" s="24">
+      <c r="H58" s="22"/>
+      <c r="I58" s="23">
         <v>9.59E-5</v>
       </c>
-      <c r="J58" s="24">
+      <c r="J58" s="23">
         <v>9.59E-5</v>
       </c>
-      <c r="K58" s="23">
+      <c r="K58" s="22">
         <v>9.5849999999999999E-5</v>
       </c>
-      <c r="L58" s="23">
+      <c r="L58" s="22">
         <v>9.5849999999999999E-5</v>
       </c>
       <c r="M58" s="2"/>
-      <c r="N58" s="19"/>
+      <c r="N58" s="18"/>
     </row>
     <row r="59" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A59" s="22" t="s">
+      <c r="A59" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B59" s="24">
+      <c r="B59" s="23">
         <v>9.59E-5</v>
       </c>
-      <c r="C59" s="24">
+      <c r="C59" s="23">
         <v>9.59E-5</v>
       </c>
-      <c r="D59" s="24">
+      <c r="D59" s="23">
         <v>9.59E-5</v>
       </c>
-      <c r="E59" s="24">
+      <c r="E59" s="23">
         <v>9.59E-5</v>
       </c>
-      <c r="F59" s="24">
+      <c r="F59" s="23">
         <v>9.59E-5</v>
       </c>
-      <c r="G59" s="24">
+      <c r="G59" s="23">
         <v>9.59E-5</v>
       </c>
-      <c r="H59" s="23"/>
-      <c r="I59" s="24">
+      <c r="H59" s="22"/>
+      <c r="I59" s="23">
         <v>9.59E-5</v>
       </c>
-      <c r="J59" s="24">
+      <c r="J59" s="23">
         <v>9.59E-5</v>
       </c>
-      <c r="K59" s="23">
+      <c r="K59" s="22">
         <v>9.5849999999999999E-5</v>
       </c>
-      <c r="L59" s="23">
+      <c r="L59" s="22">
         <v>9.5849999999999999E-5</v>
       </c>
       <c r="M59" s="2"/>
-      <c r="N59" s="19"/>
+      <c r="N59" s="18"/>
     </row>
     <row r="60" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A60" s="22" t="s">
+      <c r="A60" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B60" s="24">
+      <c r="B60" s="23">
         <v>1.4999999999999999E-7</v>
       </c>
-      <c r="C60" s="24">
+      <c r="C60" s="23">
         <v>1.4999999999999999E-7</v>
       </c>
-      <c r="D60" s="24">
+      <c r="D60" s="23">
         <v>1.4999999999999999E-7</v>
       </c>
-      <c r="E60" s="24">
+      <c r="E60" s="23">
         <v>1.4999999999999999E-7</v>
       </c>
-      <c r="F60" s="24">
+      <c r="F60" s="23">
         <v>1.4999999999999999E-7</v>
       </c>
-      <c r="G60" s="24">
+      <c r="G60" s="23">
         <v>1.4999999999999999E-7</v>
       </c>
-      <c r="H60" s="23"/>
-      <c r="I60" s="24">
+      <c r="H60" s="22"/>
+      <c r="I60" s="23">
         <v>1.5E-6</v>
       </c>
-      <c r="J60" s="24">
+      <c r="J60" s="23">
         <v>1.4999999999999999E-7</v>
       </c>
-      <c r="K60" s="23">
+      <c r="K60" s="22">
         <v>1.4999999999999999E-7</v>
       </c>
-      <c r="L60" s="23">
+      <c r="L60" s="22">
         <v>1.5E-6</v>
       </c>
       <c r="M60" s="2"/>
-      <c r="N60" s="19"/>
+      <c r="N60" s="18"/>
     </row>
     <row r="61" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A61" s="22" t="s">
+      <c r="A61" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B61" s="23">
+      <c r="B61" s="22">
         <v>200000</v>
       </c>
-      <c r="C61" s="23">
+      <c r="C61" s="22">
         <v>200000</v>
       </c>
-      <c r="D61" s="23">
+      <c r="D61" s="22">
         <v>200000</v>
       </c>
-      <c r="E61" s="23">
+      <c r="E61" s="22">
         <v>200000</v>
       </c>
-      <c r="F61" s="23">
+      <c r="F61" s="22">
         <v>200000</v>
       </c>
-      <c r="G61" s="23">
+      <c r="G61" s="22">
         <v>200000</v>
       </c>
-      <c r="H61" s="23"/>
-      <c r="I61" s="23">
+      <c r="H61" s="22"/>
+      <c r="I61" s="22">
         <v>200000</v>
       </c>
-      <c r="J61" s="23">
+      <c r="J61" s="22">
         <v>200000</v>
       </c>
-      <c r="K61" s="23">
+      <c r="K61" s="22">
         <v>200000</v>
       </c>
-      <c r="L61" s="23">
+      <c r="L61" s="22">
         <v>200000</v>
       </c>
       <c r="M61" s="2"/>
-      <c r="N61" s="19"/>
+      <c r="N61" s="18"/>
     </row>
     <row r="62" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A62" s="22" t="s">
+      <c r="A62" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B62" s="24">
+      <c r="B62" s="23">
         <v>2.4999999999999998E-22</v>
       </c>
-      <c r="C62" s="24">
+      <c r="C62" s="23">
         <v>2.4999999999999998E-22</v>
       </c>
-      <c r="D62" s="24">
+      <c r="D62" s="23">
         <v>2.4999999999999998E-22</v>
       </c>
-      <c r="E62" s="24">
+      <c r="E62" s="23">
         <v>2.4999999999999998E-22</v>
       </c>
-      <c r="F62" s="24">
+      <c r="F62" s="23">
         <v>2.4999999999999998E-22</v>
       </c>
-      <c r="G62" s="24">
+      <c r="G62" s="23">
         <v>2.4999999999999998E-22</v>
       </c>
-      <c r="H62" s="23"/>
-      <c r="I62" s="24">
+      <c r="H62" s="22"/>
+      <c r="I62" s="23">
         <v>2.4999999999999998E-22</v>
       </c>
-      <c r="J62" s="24">
+      <c r="J62" s="23">
         <v>2.4999999999999998E-22</v>
       </c>
-      <c r="K62" s="24">
+      <c r="K62" s="23">
         <v>2.4999999999999998E-22</v>
       </c>
-      <c r="L62" s="24">
+      <c r="L62" s="23">
         <v>2.4999999999999998E-22</v>
       </c>
       <c r="M62" s="3"/>
-      <c r="N62" s="20"/>
+      <c r="N62" s="19"/>
     </row>
     <row r="63" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A63" s="22" t="s">
+      <c r="A63" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B63" s="23">
+      <c r="B63" s="22">
         <v>2636</v>
       </c>
-      <c r="C63" s="23">
+      <c r="C63" s="22">
         <v>2636</v>
       </c>
-      <c r="D63" s="23">
+      <c r="D63" s="22">
         <v>2636</v>
       </c>
-      <c r="E63" s="23">
+      <c r="E63" s="22">
         <v>2636</v>
       </c>
-      <c r="F63" s="23">
+      <c r="F63" s="22">
         <v>2636</v>
       </c>
-      <c r="G63" s="23">
+      <c r="G63" s="22">
         <v>2636</v>
       </c>
-      <c r="H63" s="23"/>
-      <c r="I63" s="23">
+      <c r="H63" s="22"/>
+      <c r="I63" s="22">
         <v>2636</v>
       </c>
-      <c r="J63" s="23">
+      <c r="J63" s="22">
         <v>2636</v>
       </c>
-      <c r="K63" s="23">
+      <c r="K63" s="22">
         <v>2636</v>
       </c>
-      <c r="L63" s="23">
+      <c r="L63" s="22">
         <v>2636</v>
       </c>
       <c r="M63" s="2"/>
-      <c r="N63" s="19"/>
+      <c r="N63" s="18"/>
     </row>
     <row r="64" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A64" s="22" t="s">
+      <c r="A64" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B64" s="23">
+      <c r="B64" s="22">
         <v>0.1</v>
       </c>
-      <c r="C64" s="23">
+      <c r="C64" s="22">
         <v>0.1</v>
       </c>
-      <c r="D64" s="23">
+      <c r="D64" s="22">
         <v>0.1</v>
       </c>
-      <c r="E64" s="23">
+      <c r="E64" s="22">
         <v>0.1</v>
       </c>
-      <c r="F64" s="23">
+      <c r="F64" s="22">
         <v>0.1</v>
       </c>
-      <c r="G64" s="23">
+      <c r="G64" s="22">
         <v>0.1</v>
       </c>
-      <c r="H64" s="23"/>
-      <c r="I64" s="23">
+      <c r="H64" s="22"/>
+      <c r="I64" s="22">
         <v>0.1</v>
       </c>
-      <c r="J64" s="23">
+      <c r="J64" s="22">
         <v>0.1</v>
       </c>
-      <c r="K64" s="23">
+      <c r="K64" s="22">
         <v>0.1</v>
       </c>
-      <c r="L64" s="23">
+      <c r="L64" s="22">
         <v>0.1</v>
       </c>
       <c r="M64" s="2"/>
-      <c r="N64" s="19"/>
+      <c r="N64" s="18"/>
     </row>
     <row r="65" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A65" s="22" t="s">
+      <c r="A65" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B65" s="23">
+      <c r="B65" s="22">
         <v>0.8</v>
       </c>
-      <c r="C65" s="23">
+      <c r="C65" s="22">
         <v>0.8</v>
       </c>
-      <c r="D65" s="23">
+      <c r="D65" s="22">
         <v>0.8</v>
       </c>
-      <c r="E65" s="23">
+      <c r="E65" s="22">
         <v>0.8</v>
       </c>
-      <c r="F65" s="23">
+      <c r="F65" s="22">
         <v>0.8</v>
       </c>
-      <c r="G65" s="23">
+      <c r="G65" s="22">
         <v>0.8</v>
       </c>
-      <c r="H65" s="23"/>
-      <c r="I65" s="23">
+      <c r="H65" s="22"/>
+      <c r="I65" s="22">
         <v>0.8</v>
       </c>
-      <c r="J65" s="23">
+      <c r="J65" s="22">
         <v>0.8</v>
       </c>
-      <c r="K65" s="23">
+      <c r="K65" s="22">
         <v>0.8</v>
       </c>
-      <c r="L65" s="23">
+      <c r="L65" s="22">
         <v>0.8</v>
       </c>
       <c r="M65" s="2"/>
-      <c r="N65" s="19"/>
+      <c r="N65" s="18"/>
     </row>
     <row r="66" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A66" s="22" t="s">
+      <c r="A66" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B66" s="24">
+      <c r="B66" s="23">
         <v>8.9499999999999997E-14</v>
       </c>
-      <c r="C66" s="24">
+      <c r="C66" s="23">
         <v>8.9499999999999997E-14</v>
       </c>
-      <c r="D66" s="24">
+      <c r="D66" s="23">
         <v>8.9499999999999997E-14</v>
       </c>
-      <c r="E66" s="24">
+      <c r="E66" s="23">
         <v>8.9499999999999997E-14</v>
       </c>
-      <c r="F66" s="24">
+      <c r="F66" s="23">
         <v>8.9499999999999997E-14</v>
       </c>
-      <c r="G66" s="24">
+      <c r="G66" s="23">
         <v>8.9499999999999997E-14</v>
       </c>
-      <c r="H66" s="23"/>
-      <c r="I66" s="24">
+      <c r="H66" s="22"/>
+      <c r="I66" s="23">
         <v>8.9499999999999997E-14</v>
       </c>
-      <c r="J66" s="24">
+      <c r="J66" s="23">
         <v>8.9499999999999997E-14</v>
       </c>
-      <c r="K66" s="24">
+      <c r="K66" s="23">
         <v>8.9499999999999997E-14</v>
       </c>
-      <c r="L66" s="24">
+      <c r="L66" s="23">
         <v>8.9499999999999997E-14</v>
       </c>
       <c r="M66" s="3"/>
-      <c r="N66" s="20"/>
+      <c r="N66" s="19"/>
     </row>
     <row r="67" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A67" s="22" t="s">
+      <c r="A67" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B67" s="24">
+      <c r="B67" s="23">
         <v>9.9999999999999995E-21</v>
       </c>
-      <c r="C67" s="24">
+      <c r="C67" s="23">
         <v>9.9999999999999995E-21</v>
       </c>
-      <c r="D67" s="24">
+      <c r="D67" s="23">
         <v>9.9999999999999995E-21</v>
       </c>
-      <c r="E67" s="24">
+      <c r="E67" s="23">
         <v>9.9999999999999995E-21</v>
       </c>
-      <c r="F67" s="24">
+      <c r="F67" s="23">
         <v>9.9999999999999995E-21</v>
       </c>
-      <c r="G67" s="24">
+      <c r="G67" s="23">
         <v>9.9999999999999995E-21</v>
       </c>
-      <c r="H67" s="23"/>
-      <c r="I67" s="24">
+      <c r="H67" s="22"/>
+      <c r="I67" s="23">
         <v>9.9999999999999995E-21</v>
       </c>
-      <c r="J67" s="24">
+      <c r="J67" s="23">
         <v>9.9999999999999995E-21</v>
       </c>
-      <c r="K67" s="24">
+      <c r="K67" s="23">
         <v>9.9999999999999995E-21</v>
       </c>
-      <c r="L67" s="24">
+      <c r="L67" s="23">
         <v>9.9999999999999995E-21</v>
       </c>
       <c r="M67" s="3"/>
-      <c r="N67" s="20"/>
+      <c r="N67" s="19"/>
     </row>
     <row r="68" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A68" s="22" t="s">
+      <c r="A68" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B68" s="23">
+      <c r="B68" s="22">
         <v>15</v>
       </c>
-      <c r="C68" s="23">
+      <c r="C68" s="22">
         <v>15</v>
       </c>
-      <c r="D68" s="23">
+      <c r="D68" s="22">
         <v>15</v>
       </c>
-      <c r="E68" s="23">
+      <c r="E68" s="22">
         <v>15</v>
       </c>
-      <c r="F68" s="23">
+      <c r="F68" s="22">
         <v>15</v>
       </c>
-      <c r="G68" s="23">
+      <c r="G68" s="22">
         <v>15</v>
       </c>
-      <c r="H68" s="23"/>
-      <c r="I68" s="23">
+      <c r="H68" s="22"/>
+      <c r="I68" s="22">
         <v>15</v>
       </c>
-      <c r="J68" s="23">
+      <c r="J68" s="22">
         <v>15</v>
       </c>
-      <c r="K68" s="23">
+      <c r="K68" s="22">
         <v>15</v>
       </c>
-      <c r="L68" s="23">
+      <c r="L68" s="22">
         <v>15</v>
       </c>
       <c r="M68" s="2"/>
-      <c r="N68" s="19"/>
+      <c r="N68" s="18"/>
     </row>
     <row r="69" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A69" s="22" t="s">
+      <c r="A69" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B69" s="24">
+      <c r="B69" s="23">
         <v>2.5000000000000001E-9</v>
       </c>
-      <c r="C69" s="24">
+      <c r="C69" s="23">
         <v>2.5000000000000001E-9</v>
       </c>
-      <c r="D69" s="24">
+      <c r="D69" s="23">
         <v>2.5000000000000001E-9</v>
       </c>
-      <c r="E69" s="24">
+      <c r="E69" s="23">
         <v>2.5000000000000001E-9</v>
       </c>
-      <c r="F69" s="24">
+      <c r="F69" s="23">
         <v>2.5000000000000001E-9</v>
       </c>
-      <c r="G69" s="24">
+      <c r="G69" s="23">
         <v>2.5000000000000001E-9</v>
       </c>
-      <c r="H69" s="23"/>
-      <c r="I69" s="24">
+      <c r="H69" s="22"/>
+      <c r="I69" s="23">
         <v>2.5000000000000001E-9</v>
       </c>
-      <c r="J69" s="24">
+      <c r="J69" s="23">
         <v>2.5000000000000001E-9</v>
       </c>
-      <c r="K69" s="24">
+      <c r="K69" s="23">
         <v>2.5000000000000001E-9</v>
       </c>
-      <c r="L69" s="24">
+      <c r="L69" s="23">
         <v>2.5000000000000001E-9</v>
       </c>
       <c r="M69" s="3"/>
-      <c r="N69" s="20"/>
+      <c r="N69" s="19"/>
     </row>
     <row r="70" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="22" t="s">
+      <c r="A70" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B70" s="24">
+      <c r="B70" s="23">
         <v>2.5000000000000001E-9</v>
       </c>
-      <c r="C70" s="24">
+      <c r="C70" s="23">
         <v>2.5000000000000001E-9</v>
       </c>
-      <c r="D70" s="24">
+      <c r="D70" s="23">
         <v>2.5000000000000001E-9</v>
       </c>
-      <c r="E70" s="24">
+      <c r="E70" s="23">
         <v>2.5000000000000001E-9</v>
       </c>
-      <c r="F70" s="24">
+      <c r="F70" s="23">
         <v>2.5000000000000001E-9</v>
       </c>
-      <c r="G70" s="24">
+      <c r="G70" s="23">
         <v>2.5000000000000001E-9</v>
       </c>
-      <c r="H70" s="23"/>
-      <c r="I70" s="24">
+      <c r="H70" s="22"/>
+      <c r="I70" s="23">
         <v>2.5000000000000001E-9</v>
       </c>
-      <c r="J70" s="24">
+      <c r="J70" s="23">
         <v>2.5000000000000001E-9</v>
       </c>
-      <c r="K70" s="24">
+      <c r="K70" s="23">
         <v>2.5000000000000001E-9</v>
       </c>
-      <c r="L70" s="24">
+      <c r="L70" s="23">
         <v>2.5000000000000001E-9</v>
       </c>
       <c r="M70" s="3"/>
-      <c r="N70" s="20"/>
+      <c r="N70" s="19"/>
     </row>
     <row r="71" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A71" s="22" t="s">
+      <c r="A71" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B71" s="23">
+      <c r="B71" s="22">
         <v>4541</v>
       </c>
-      <c r="C71" s="23">
+      <c r="C71" s="22">
         <v>4541</v>
       </c>
-      <c r="D71" s="23">
+      <c r="D71" s="22">
         <v>4541</v>
       </c>
-      <c r="E71" s="23">
+      <c r="E71" s="22">
         <v>4541</v>
       </c>
-      <c r="F71" s="23">
+      <c r="F71" s="22">
         <v>4541</v>
       </c>
-      <c r="G71" s="23">
+      <c r="G71" s="22">
         <v>4541</v>
       </c>
-      <c r="H71" s="23"/>
-      <c r="I71" s="23">
+      <c r="H71" s="22"/>
+      <c r="I71" s="22">
         <v>4541</v>
       </c>
-      <c r="J71" s="23">
+      <c r="J71" s="22">
         <v>4541</v>
       </c>
-      <c r="K71" s="23">
+      <c r="K71" s="22">
         <v>4541</v>
       </c>
-      <c r="L71" s="23">
+      <c r="L71" s="22">
         <v>4541</v>
       </c>
       <c r="M71" s="2"/>
-      <c r="N71" s="19"/>
+      <c r="N71" s="18"/>
     </row>
     <row r="72" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A72" s="22" t="s">
+      <c r="A72" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B72" s="24">
+      <c r="B72" s="23">
         <v>2.0000000000000001E-18</v>
       </c>
-      <c r="C72" s="24">
+      <c r="C72" s="23">
         <v>2.0000000000000001E-18</v>
       </c>
-      <c r="D72" s="24">
+      <c r="D72" s="23">
         <v>2.0000000000000001E-18</v>
       </c>
-      <c r="E72" s="24">
+      <c r="E72" s="23">
         <v>2.0000000000000001E-18</v>
       </c>
-      <c r="F72" s="24">
+      <c r="F72" s="23">
         <v>2.0000000000000001E-18</v>
       </c>
-      <c r="G72" s="24">
+      <c r="G72" s="23">
         <v>2.0000000000000001E-18</v>
       </c>
-      <c r="H72" s="23"/>
-      <c r="I72" s="24">
+      <c r="H72" s="22"/>
+      <c r="I72" s="23">
         <v>2.0000000000000001E-18</v>
       </c>
-      <c r="J72" s="24">
+      <c r="J72" s="23">
         <v>2.0000000000000001E-18</v>
       </c>
-      <c r="K72" s="24">
+      <c r="K72" s="23">
         <v>2.0000000000000001E-18</v>
       </c>
-      <c r="L72" s="24">
+      <c r="L72" s="23">
         <v>2.0000000000000001E-18</v>
       </c>
       <c r="M72" s="3"/>
-      <c r="N72" s="20"/>
+      <c r="N72" s="19"/>
     </row>
     <row r="73" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A73" s="22" t="s">
+      <c r="A73" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="B73" s="24">
+      <c r="B73" s="23">
         <v>9.9999999999999998E-13</v>
       </c>
-      <c r="C73" s="24">
+      <c r="C73" s="23">
         <v>9.9999999999999998E-13</v>
       </c>
-      <c r="D73" s="24">
+      <c r="D73" s="23">
         <v>9.9999999999999998E-13</v>
       </c>
-      <c r="E73" s="24">
+      <c r="E73" s="23">
         <v>9.9999999999999998E-13</v>
       </c>
-      <c r="F73" s="24">
+      <c r="F73" s="23">
         <v>9.9999999999999998E-13</v>
       </c>
-      <c r="G73" s="24">
+      <c r="G73" s="23">
         <v>9.9999999999999998E-13</v>
       </c>
-      <c r="H73" s="23"/>
-      <c r="I73" s="24">
+      <c r="H73" s="22"/>
+      <c r="I73" s="23">
         <v>9.9999999999999998E-13</v>
       </c>
-      <c r="J73" s="24">
+      <c r="J73" s="23">
         <v>9.9999999999999998E-13</v>
       </c>
-      <c r="K73" s="24">
+      <c r="K73" s="23">
         <v>9.9999999999999998E-13</v>
       </c>
-      <c r="L73" s="24">
+      <c r="L73" s="23">
         <v>9.9999999999999998E-13</v>
       </c>
       <c r="M73" s="3"/>
-      <c r="N73" s="20"/>
+      <c r="N73" s="19"/>
     </row>
     <row r="74" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A74" s="22" t="s">
+      <c r="A74" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B74" s="23">
-        <v>0</v>
-      </c>
-      <c r="C74" s="23">
-        <v>0</v>
-      </c>
-      <c r="D74" s="23">
-        <v>0</v>
-      </c>
-      <c r="E74" s="23">
-        <v>0</v>
-      </c>
-      <c r="F74" s="23">
-        <v>0</v>
-      </c>
-      <c r="G74" s="23">
-        <v>0</v>
-      </c>
-      <c r="H74" s="23"/>
-      <c r="I74" s="23">
-        <v>0</v>
-      </c>
-      <c r="J74" s="23">
-        <v>0</v>
-      </c>
-      <c r="K74" s="23">
-        <v>0</v>
-      </c>
-      <c r="L74" s="23">
+      <c r="B74" s="22">
+        <v>0</v>
+      </c>
+      <c r="C74" s="22">
+        <v>0</v>
+      </c>
+      <c r="D74" s="22">
+        <v>0</v>
+      </c>
+      <c r="E74" s="22">
+        <v>0</v>
+      </c>
+      <c r="F74" s="22">
+        <v>0</v>
+      </c>
+      <c r="G74" s="22">
+        <v>0</v>
+      </c>
+      <c r="H74" s="22"/>
+      <c r="I74" s="22">
+        <v>0</v>
+      </c>
+      <c r="J74" s="22">
+        <v>0</v>
+      </c>
+      <c r="K74" s="22">
+        <v>0</v>
+      </c>
+      <c r="L74" s="22">
         <v>0</v>
       </c>
       <c r="M74" s="2"/>
-      <c r="N74" s="19"/>
+      <c r="N74" s="18"/>
     </row>
     <row r="75" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A75" s="22" t="s">
+      <c r="A75" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B75" s="23">
-        <v>0</v>
-      </c>
-      <c r="C75" s="23">
-        <v>0</v>
-      </c>
-      <c r="D75" s="23">
-        <v>0</v>
-      </c>
-      <c r="E75" s="23">
-        <v>0</v>
-      </c>
-      <c r="F75" s="23">
-        <v>0</v>
-      </c>
-      <c r="G75" s="23">
-        <v>0</v>
-      </c>
-      <c r="H75" s="23"/>
-      <c r="I75" s="23"/>
-      <c r="J75" s="23">
-        <v>0</v>
-      </c>
-      <c r="K75" s="23">
-        <v>0</v>
-      </c>
-      <c r="L75" s="23">
+      <c r="B75" s="22">
+        <v>0</v>
+      </c>
+      <c r="C75" s="22">
+        <v>0</v>
+      </c>
+      <c r="D75" s="22">
+        <v>0</v>
+      </c>
+      <c r="E75" s="22">
+        <v>0</v>
+      </c>
+      <c r="F75" s="22">
+        <v>0</v>
+      </c>
+      <c r="G75" s="22">
+        <v>0</v>
+      </c>
+      <c r="H75" s="22"/>
+      <c r="I75" s="22"/>
+      <c r="J75" s="22">
+        <v>0</v>
+      </c>
+      <c r="K75" s="22">
+        <v>0</v>
+      </c>
+      <c r="L75" s="22">
         <v>0</v>
       </c>
       <c r="M75" s="2"/>
-      <c r="N75" s="19"/>
+      <c r="N75" s="18"/>
     </row>
     <row r="76" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A76" s="22" t="s">
+      <c r="A76" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B76" s="23">
-        <v>0</v>
-      </c>
-      <c r="C76" s="23">
-        <v>0</v>
-      </c>
-      <c r="D76" s="23">
-        <v>0</v>
-      </c>
-      <c r="E76" s="23">
-        <v>0</v>
-      </c>
-      <c r="F76" s="23">
-        <v>0</v>
-      </c>
-      <c r="G76" s="23">
-        <v>0</v>
-      </c>
-      <c r="H76" s="23"/>
-      <c r="I76" s="23"/>
-      <c r="J76" s="23">
-        <v>0</v>
-      </c>
-      <c r="K76" s="23">
-        <v>0</v>
-      </c>
-      <c r="L76" s="23">
+      <c r="B76" s="22">
+        <v>0</v>
+      </c>
+      <c r="C76" s="22">
+        <v>0</v>
+      </c>
+      <c r="D76" s="22">
+        <v>0</v>
+      </c>
+      <c r="E76" s="22">
+        <v>0</v>
+      </c>
+      <c r="F76" s="22">
+        <v>0</v>
+      </c>
+      <c r="G76" s="22">
+        <v>0</v>
+      </c>
+      <c r="H76" s="22"/>
+      <c r="I76" s="22"/>
+      <c r="J76" s="22">
+        <v>0</v>
+      </c>
+      <c r="K76" s="22">
+        <v>0</v>
+      </c>
+      <c r="L76" s="22">
         <v>0</v>
       </c>
       <c r="M76" s="2"/>
-      <c r="N76" s="19"/>
+      <c r="N76" s="18"/>
     </row>
     <row r="77" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A77" s="22" t="s">
+      <c r="A77" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="B77" s="23">
+      <c r="B77" s="22">
         <v>0.95</v>
       </c>
-      <c r="C77" s="23"/>
-      <c r="D77" s="23"/>
-      <c r="E77" s="23"/>
-      <c r="F77" s="23"/>
-      <c r="G77" s="23"/>
-      <c r="H77" s="23"/>
-      <c r="I77" s="23"/>
-      <c r="J77" s="23"/>
-      <c r="K77" s="23">
+      <c r="C77" s="22"/>
+      <c r="D77" s="22"/>
+      <c r="E77" s="22"/>
+      <c r="F77" s="22"/>
+      <c r="G77" s="22"/>
+      <c r="H77" s="22"/>
+      <c r="I77" s="22"/>
+      <c r="J77" s="22"/>
+      <c r="K77" s="22">
         <v>0.95</v>
       </c>
-      <c r="L77" s="23">
+      <c r="L77" s="22">
         <v>0.95</v>
       </c>
       <c r="M77" s="2"/>
-      <c r="N77" s="19"/>
+      <c r="N77" s="18"/>
     </row>
     <row r="78" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A78" s="22" t="s">
+      <c r="A78" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="B78" s="24">
+      <c r="B78" s="23">
         <v>1.1000000000000001E-6</v>
       </c>
-      <c r="C78" s="24">
+      <c r="C78" s="23">
         <v>1.1000000000000001E-6</v>
       </c>
-      <c r="D78" s="23"/>
-      <c r="E78" s="23"/>
-      <c r="F78" s="23"/>
-      <c r="G78" s="23"/>
-      <c r="H78" s="23"/>
-      <c r="I78" s="23"/>
-      <c r="J78" s="23"/>
-      <c r="K78" s="23">
+      <c r="D78" s="22"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="22"/>
+      <c r="G78" s="22"/>
+      <c r="H78" s="22"/>
+      <c r="I78" s="22"/>
+      <c r="J78" s="22"/>
+      <c r="K78" s="22">
         <v>1.1000000000000001E-6</v>
       </c>
-      <c r="L78" s="23">
+      <c r="L78" s="22">
         <v>1.1000000000000001E-6</v>
       </c>
       <c r="M78" s="2"/>
-      <c r="N78" s="19"/>
+      <c r="N78" s="18"/>
     </row>
     <row r="79" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A79" s="22" t="s">
+      <c r="A79" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B79" s="23">
+      <c r="B79" s="22">
         <v>385</v>
       </c>
-      <c r="C79" s="23">
+      <c r="C79" s="22">
         <v>385</v>
       </c>
-      <c r="D79" s="23">
+      <c r="D79" s="22">
         <v>385</v>
       </c>
-      <c r="E79" s="23">
+      <c r="E79" s="22">
         <v>385</v>
       </c>
-      <c r="F79" s="23">
+      <c r="F79" s="22">
         <v>385</v>
       </c>
-      <c r="G79" s="23">
+      <c r="G79" s="22">
         <v>385</v>
       </c>
-      <c r="H79" s="23">
+      <c r="H79" s="22">
         <v>385</v>
       </c>
-      <c r="I79" s="23">
+      <c r="I79" s="22">
         <v>385</v>
       </c>
-      <c r="J79" s="23"/>
-      <c r="K79" s="23">
+      <c r="J79" s="22"/>
+      <c r="K79" s="22">
         <v>385</v>
       </c>
-      <c r="L79" s="23">
+      <c r="L79" s="22">
         <v>385</v>
       </c>
       <c r="M79" s="2"/>
-      <c r="N79" s="19"/>
+      <c r="N79" s="18"/>
     </row>
     <row r="80" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A80" s="22" t="s">
+      <c r="A80" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="B80" s="23">
-        <v>0</v>
-      </c>
-      <c r="C80" s="23">
-        <v>0</v>
-      </c>
-      <c r="D80" s="23">
-        <v>0</v>
-      </c>
-      <c r="E80" s="23">
-        <v>0</v>
-      </c>
-      <c r="F80" s="23">
-        <v>0</v>
-      </c>
-      <c r="G80" s="23">
-        <v>0</v>
-      </c>
-      <c r="H80" s="23">
-        <v>0</v>
-      </c>
-      <c r="I80" s="23">
-        <v>0</v>
-      </c>
-      <c r="J80" s="23">
-        <v>0</v>
-      </c>
-      <c r="K80" s="23">
-        <v>0</v>
-      </c>
-      <c r="L80" s="23">
+      <c r="B80" s="22">
+        <v>0</v>
+      </c>
+      <c r="C80" s="22">
+        <v>0</v>
+      </c>
+      <c r="D80" s="22">
+        <v>0</v>
+      </c>
+      <c r="E80" s="22">
+        <v>0</v>
+      </c>
+      <c r="F80" s="22">
+        <v>0</v>
+      </c>
+      <c r="G80" s="22">
+        <v>0</v>
+      </c>
+      <c r="H80" s="22">
+        <v>0</v>
+      </c>
+      <c r="I80" s="22">
+        <v>0</v>
+      </c>
+      <c r="J80" s="22">
+        <v>0</v>
+      </c>
+      <c r="K80" s="22">
+        <v>0</v>
+      </c>
+      <c r="L80" s="22">
         <v>0</v>
       </c>
       <c r="M80" s="2"/>
-      <c r="N80" s="19"/>
+      <c r="N80" s="18"/>
     </row>
     <row r="81" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A81" s="22" t="s">
+      <c r="A81" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="B81" s="23" t="s">
+      <c r="B81" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="C81" s="24">
+      <c r="C81" s="23">
         <v>3.2999999999999998E-14</v>
       </c>
-      <c r="D81" s="23" t="s">
+      <c r="D81" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="E81" s="23" t="s">
+      <c r="E81" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="F81" s="23" t="s">
+      <c r="F81" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="G81" s="23" t="s">
+      <c r="G81" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="H81" s="24">
+      <c r="H81" s="23">
         <v>3.2999999999999998E-14</v>
       </c>
-      <c r="I81" s="23" t="s">
+      <c r="I81" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="J81" s="23"/>
-      <c r="K81" s="24">
+      <c r="J81" s="22"/>
+      <c r="K81" s="23">
         <v>3.2999999999999998E-14</v>
       </c>
-      <c r="L81" s="24">
+      <c r="L81" s="23">
         <v>3.2999999999999998E-14</v>
       </c>
       <c r="M81" s="3"/>
-      <c r="N81" s="20"/>
+      <c r="N81" s="19"/>
     </row>
     <row r="82" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A82" s="22" t="s">
+      <c r="A82" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="B82" s="23" t="s">
+      <c r="B82" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C82" s="23" t="s">
+      <c r="C82" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="D82" s="23" t="s">
+      <c r="D82" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="E82" s="23" t="s">
+      <c r="E82" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="F82" s="23" t="s">
+      <c r="F82" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="G82" s="23" t="s">
+      <c r="G82" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="H82" s="23" t="s">
+      <c r="H82" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="I82" s="23" t="s">
+      <c r="I82" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="J82" s="23">
-        <v>0</v>
-      </c>
-      <c r="K82" s="23">
-        <v>0</v>
-      </c>
-      <c r="L82" s="23">
+      <c r="J82" s="22">
+        <v>0</v>
+      </c>
+      <c r="K82" s="22">
+        <v>0</v>
+      </c>
+      <c r="L82" s="22">
         <v>0</v>
       </c>
       <c r="M82" s="2"/>
-      <c r="N82" s="19"/>
+      <c r="N82" s="18"/>
     </row>
     <row r="83" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A83" s="22" t="s">
+      <c r="A83" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="B83" s="23">
+      <c r="B83" s="22">
         <v>0.5</v>
       </c>
-      <c r="C83" s="23">
+      <c r="C83" s="22">
         <v>0.5</v>
       </c>
-      <c r="D83" s="23"/>
-      <c r="E83" s="23">
+      <c r="D83" s="22"/>
+      <c r="E83" s="22">
         <v>0.5</v>
       </c>
-      <c r="F83" s="23">
+      <c r="F83" s="22">
         <v>0.5</v>
       </c>
-      <c r="G83" s="23">
+      <c r="G83" s="22">
         <v>0.5</v>
       </c>
-      <c r="H83" s="23">
+      <c r="H83" s="22">
         <v>0.5</v>
       </c>
-      <c r="I83" s="23">
+      <c r="I83" s="22">
         <v>0.5</v>
       </c>
-      <c r="J83" s="23">
+      <c r="J83" s="22">
         <v>0.5</v>
       </c>
-      <c r="K83" s="23">
+      <c r="K83" s="22">
         <v>0.5</v>
       </c>
-      <c r="L83" s="23">
+      <c r="L83" s="22">
         <v>0.5</v>
       </c>
       <c r="M83" s="2"/>
-      <c r="N83" s="19"/>
+      <c r="N83" s="18"/>
     </row>
     <row r="84" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A84" s="22" t="s">
+      <c r="A84" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="B84" s="23">
+      <c r="B84" s="22">
         <v>0.2</v>
       </c>
-      <c r="C84" s="23">
+      <c r="C84" s="22">
         <v>0.2</v>
       </c>
-      <c r="D84" s="23"/>
-      <c r="E84" s="23">
+      <c r="D84" s="22"/>
+      <c r="E84" s="22">
         <v>0.2</v>
       </c>
-      <c r="F84" s="23">
+      <c r="F84" s="22">
         <v>0.2</v>
       </c>
-      <c r="G84" s="23">
+      <c r="G84" s="22">
         <v>0.2</v>
       </c>
-      <c r="H84" s="23">
+      <c r="H84" s="22">
         <v>0.2</v>
       </c>
-      <c r="I84" s="23">
+      <c r="I84" s="22">
         <v>0.2</v>
       </c>
-      <c r="J84" s="23">
+      <c r="J84" s="22">
         <v>0.2</v>
       </c>
-      <c r="K84" s="23">
+      <c r="K84" s="22">
         <v>0.2</v>
       </c>
-      <c r="L84" s="23">
+      <c r="L84" s="22">
         <v>0.2</v>
       </c>
       <c r="M84" s="2"/>
-      <c r="N84" s="19"/>
+      <c r="N84" s="18"/>
     </row>
     <row r="85" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A85" s="22" t="s">
+      <c r="A85" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="B85" s="23" t="s">
+      <c r="B85" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="C85" s="23" t="s">
+      <c r="C85" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="D85" s="23" t="s">
+      <c r="D85" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="E85" s="23" t="s">
+      <c r="E85" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="F85" s="23" t="s">
+      <c r="F85" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="G85" s="23" t="s">
+      <c r="G85" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="H85" s="23" t="s">
+      <c r="H85" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="I85" s="23" t="s">
+      <c r="I85" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="J85" s="23"/>
-      <c r="K85" s="23">
-        <v>0</v>
-      </c>
-      <c r="L85" s="23">
+      <c r="J85" s="22"/>
+      <c r="K85" s="22">
+        <v>0</v>
+      </c>
+      <c r="L85" s="22">
         <v>0</v>
       </c>
       <c r="M85" s="2"/>
-      <c r="N85" s="19"/>
+      <c r="N85" s="18"/>
     </row>
     <row r="86" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A86" s="22" t="s">
+      <c r="A86" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="B86" s="23" t="s">
+      <c r="B86" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="C86" s="23">
-        <v>0</v>
-      </c>
-      <c r="D86" s="23">
-        <v>0</v>
-      </c>
-      <c r="E86" s="23" t="s">
+      <c r="C86" s="22">
+        <v>0</v>
+      </c>
+      <c r="D86" s="22">
+        <v>0</v>
+      </c>
+      <c r="E86" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="F86" s="23" t="s">
+      <c r="F86" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="G86" s="23">
-        <v>0</v>
-      </c>
-      <c r="H86" s="23">
-        <v>0</v>
-      </c>
-      <c r="I86" s="23" t="s">
+      <c r="G86" s="22">
+        <v>0</v>
+      </c>
+      <c r="H86" s="22">
+        <v>0</v>
+      </c>
+      <c r="I86" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="J86" s="23">
-        <v>0</v>
-      </c>
-      <c r="K86" s="23">
-        <v>0</v>
-      </c>
-      <c r="L86" s="23">
+      <c r="J86" s="22">
+        <v>0</v>
+      </c>
+      <c r="K86" s="22">
+        <v>0</v>
+      </c>
+      <c r="L86" s="22">
         <v>0</v>
       </c>
       <c r="M86" s="2"/>
-      <c r="N86" s="19"/>
+      <c r="N86" s="18"/>
     </row>
     <row r="87" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A87" s="22" t="s">
+      <c r="A87" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="B87" s="23">
+      <c r="B87" s="22">
         <v>0.3</v>
       </c>
-      <c r="C87" s="23"/>
-      <c r="D87" s="23"/>
-      <c r="E87" s="23"/>
-      <c r="F87" s="23"/>
-      <c r="G87" s="23"/>
-      <c r="H87" s="23"/>
-      <c r="I87" s="23"/>
-      <c r="J87" s="23"/>
-      <c r="K87" s="23">
+      <c r="C87" s="22"/>
+      <c r="D87" s="22"/>
+      <c r="E87" s="22"/>
+      <c r="F87" s="22"/>
+      <c r="G87" s="22"/>
+      <c r="H87" s="22"/>
+      <c r="I87" s="22"/>
+      <c r="J87" s="22"/>
+      <c r="K87" s="22">
         <v>0.3</v>
       </c>
-      <c r="L87" s="23">
+      <c r="L87" s="22">
         <v>0.3</v>
       </c>
       <c r="M87" s="2"/>
-      <c r="N87" s="19"/>
+      <c r="N87" s="18"/>
     </row>
     <row r="88" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A88" s="22" t="s">
+      <c r="A88" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="B88" s="23">
+      <c r="B88" s="22">
         <v>15000000000</v>
       </c>
-      <c r="C88" s="23"/>
-      <c r="D88" s="23"/>
-      <c r="E88" s="23"/>
-      <c r="F88" s="23"/>
-      <c r="G88" s="23"/>
-      <c r="H88" s="23"/>
-      <c r="I88" s="23"/>
-      <c r="J88" s="23"/>
-      <c r="K88" s="23">
+      <c r="C88" s="22"/>
+      <c r="D88" s="22"/>
+      <c r="E88" s="22"/>
+      <c r="F88" s="22"/>
+      <c r="G88" s="22"/>
+      <c r="H88" s="22"/>
+      <c r="I88" s="22"/>
+      <c r="J88" s="22"/>
+      <c r="K88" s="22">
         <v>15000000000</v>
       </c>
-      <c r="L88" s="23">
+      <c r="L88" s="22">
         <v>15000000000</v>
       </c>
       <c r="M88" s="2"/>
-      <c r="N88" s="19"/>
+      <c r="N88" s="18"/>
     </row>
     <row r="89" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A89" s="22" t="s">
+      <c r="A89" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="B89" s="23">
-        <v>0</v>
-      </c>
-      <c r="C89" s="23"/>
-      <c r="D89" s="23"/>
-      <c r="E89" s="23"/>
-      <c r="F89" s="23"/>
-      <c r="G89" s="23"/>
-      <c r="H89" s="23"/>
-      <c r="I89" s="23"/>
-      <c r="J89" s="23"/>
-      <c r="K89" s="23">
-        <v>0</v>
-      </c>
-      <c r="L89" s="23">
+      <c r="B89" s="22">
+        <v>0</v>
+      </c>
+      <c r="C89" s="22"/>
+      <c r="D89" s="22"/>
+      <c r="E89" s="22"/>
+      <c r="F89" s="22"/>
+      <c r="G89" s="22"/>
+      <c r="H89" s="22"/>
+      <c r="I89" s="22"/>
+      <c r="J89" s="22"/>
+      <c r="K89" s="22">
+        <v>0</v>
+      </c>
+      <c r="L89" s="22">
         <v>0</v>
       </c>
       <c r="M89" s="2"/>
-      <c r="N89" s="19"/>
+      <c r="N89" s="18"/>
     </row>
     <row r="90" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A90" s="22" t="s">
+      <c r="A90" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="B90" s="24">
+      <c r="B90" s="23">
         <v>3.1E-6</v>
       </c>
-      <c r="C90" s="23"/>
-      <c r="D90" s="23"/>
-      <c r="E90" s="23"/>
-      <c r="F90" s="23"/>
-      <c r="G90" s="23"/>
-      <c r="H90" s="23"/>
-      <c r="I90" s="23"/>
-      <c r="J90" s="23"/>
-      <c r="K90" s="23">
+      <c r="C90" s="22"/>
+      <c r="D90" s="22"/>
+      <c r="E90" s="22"/>
+      <c r="F90" s="22"/>
+      <c r="G90" s="22"/>
+      <c r="H90" s="22"/>
+      <c r="I90" s="22"/>
+      <c r="J90" s="22"/>
+      <c r="K90" s="22">
         <v>3.1E-6</v>
       </c>
-      <c r="L90" s="23">
+      <c r="L90" s="22">
         <v>3.1E-6</v>
       </c>
       <c r="M90" s="2"/>
-      <c r="N90" s="19"/>
+      <c r="N90" s="18"/>
     </row>
     <row r="91" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A91" s="22" t="s">
+      <c r="A91" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="B91" s="23" t="s">
+      <c r="B91" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="C91" s="23"/>
-      <c r="D91" s="23"/>
-      <c r="E91" s="23"/>
-      <c r="F91" s="23"/>
-      <c r="G91" s="23"/>
-      <c r="H91" s="23"/>
-      <c r="I91" s="23"/>
-      <c r="J91" s="23"/>
-      <c r="K91" s="23">
-        <v>0</v>
-      </c>
-      <c r="L91" s="23">
+      <c r="C91" s="22"/>
+      <c r="D91" s="22"/>
+      <c r="E91" s="22"/>
+      <c r="F91" s="22"/>
+      <c r="G91" s="22"/>
+      <c r="H91" s="22"/>
+      <c r="I91" s="22"/>
+      <c r="J91" s="22"/>
+      <c r="K91" s="22">
+        <v>0</v>
+      </c>
+      <c r="L91" s="22">
         <v>0</v>
       </c>
       <c r="M91" s="2"/>
-      <c r="N91" s="19"/>
+      <c r="N91" s="18"/>
     </row>
     <row r="92" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A92" s="22" t="s">
+      <c r="A92" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="B92" s="24">
+      <c r="B92" s="23">
         <v>2E-8</v>
       </c>
-      <c r="C92" s="23"/>
-      <c r="D92" s="23"/>
-      <c r="E92" s="23"/>
-      <c r="F92" s="23"/>
-      <c r="G92" s="23"/>
-      <c r="H92" s="23"/>
-      <c r="I92" s="23"/>
-      <c r="J92" s="23"/>
-      <c r="K92" s="23">
+      <c r="C92" s="22"/>
+      <c r="D92" s="22"/>
+      <c r="E92" s="22"/>
+      <c r="F92" s="22"/>
+      <c r="G92" s="22"/>
+      <c r="H92" s="22"/>
+      <c r="I92" s="22"/>
+      <c r="J92" s="22"/>
+      <c r="K92" s="22">
         <v>2E-8</v>
       </c>
-      <c r="L92" s="23">
+      <c r="L92" s="22">
         <v>2E-8</v>
       </c>
       <c r="M92" s="2"/>
-      <c r="N92" s="19"/>
+      <c r="N92" s="18"/>
     </row>
     <row r="93" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A93" s="22" t="s">
+      <c r="A93" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="B93" s="24">
+      <c r="B93" s="23">
         <v>1.4999999999999999E-8</v>
       </c>
-      <c r="C93" s="23"/>
-      <c r="D93" s="23"/>
-      <c r="E93" s="23"/>
-      <c r="F93" s="23"/>
-      <c r="G93" s="23"/>
-      <c r="H93" s="23"/>
-      <c r="I93" s="23"/>
-      <c r="J93" s="23"/>
-      <c r="K93" s="23">
+      <c r="C93" s="22"/>
+      <c r="D93" s="22"/>
+      <c r="E93" s="22"/>
+      <c r="F93" s="22"/>
+      <c r="G93" s="22"/>
+      <c r="H93" s="22"/>
+      <c r="I93" s="22"/>
+      <c r="J93" s="22"/>
+      <c r="K93" s="22">
         <v>1.4999999999999999E-8</v>
       </c>
-      <c r="L93" s="23">
+      <c r="L93" s="22">
         <v>1.4999999999999999E-8</v>
       </c>
       <c r="M93" s="2"/>
-      <c r="N93" s="19"/>
+      <c r="N93" s="18"/>
     </row>
     <row r="94" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A94" s="22" t="s">
+      <c r="A94" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="B94" s="24">
+      <c r="B94" s="23">
         <v>3180000000000000</v>
       </c>
-      <c r="C94" s="23"/>
-      <c r="D94" s="23"/>
-      <c r="E94" s="23"/>
-      <c r="F94" s="23"/>
-      <c r="G94" s="23"/>
-      <c r="H94" s="23"/>
-      <c r="I94" s="23"/>
-      <c r="J94" s="23"/>
-      <c r="K94" s="24">
+      <c r="C94" s="22"/>
+      <c r="D94" s="22"/>
+      <c r="E94" s="22"/>
+      <c r="F94" s="22"/>
+      <c r="G94" s="22"/>
+      <c r="H94" s="22"/>
+      <c r="I94" s="22"/>
+      <c r="J94" s="22"/>
+      <c r="K94" s="23">
         <v>3180000000000000</v>
       </c>
-      <c r="L94" s="24">
+      <c r="L94" s="23">
         <v>3180000000000000</v>
       </c>
       <c r="M94" s="3"/>
-      <c r="N94" s="20"/>
+      <c r="N94" s="19"/>
     </row>
     <row r="95" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A95" s="22" t="s">
+      <c r="A95" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="B95" s="23">
+      <c r="B95" s="22">
         <v>1.1200000000000001</v>
       </c>
-      <c r="C95" s="23"/>
-      <c r="D95" s="23"/>
-      <c r="E95" s="23"/>
-      <c r="F95" s="23"/>
-      <c r="G95" s="23"/>
-      <c r="H95" s="23"/>
-      <c r="I95" s="23"/>
-      <c r="J95" s="23"/>
-      <c r="K95" s="23">
+      <c r="C95" s="22"/>
+      <c r="D95" s="22"/>
+      <c r="E95" s="22"/>
+      <c r="F95" s="22"/>
+      <c r="G95" s="22"/>
+      <c r="H95" s="22"/>
+      <c r="I95" s="22"/>
+      <c r="J95" s="22"/>
+      <c r="K95" s="22">
         <v>1.1200000000000001</v>
       </c>
-      <c r="L95" s="23">
+      <c r="L95" s="22">
         <v>1.1200000000000001</v>
       </c>
       <c r="M95" s="2"/>
-      <c r="N95" s="19"/>
+      <c r="N95" s="18"/>
     </row>
     <row r="96" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A96" s="22" t="s">
+      <c r="A96" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="B96" s="23">
+      <c r="B96" s="22">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C96" s="23"/>
-      <c r="D96" s="23"/>
-      <c r="E96" s="23"/>
-      <c r="F96" s="23"/>
-      <c r="G96" s="23"/>
-      <c r="H96" s="23"/>
-      <c r="I96" s="23"/>
-      <c r="J96" s="23"/>
-      <c r="K96" s="23">
+      <c r="C96" s="22"/>
+      <c r="D96" s="22"/>
+      <c r="E96" s="22"/>
+      <c r="F96" s="22"/>
+      <c r="G96" s="22"/>
+      <c r="H96" s="22"/>
+      <c r="I96" s="22"/>
+      <c r="J96" s="22"/>
+      <c r="K96" s="22">
         <v>2.2000000000000002</v>
       </c>
-      <c r="L96" s="23">
+      <c r="L96" s="22">
         <v>2.2000000000000002</v>
       </c>
       <c r="M96" s="2"/>
-      <c r="N96" s="19"/>
+      <c r="N96" s="18"/>
     </row>
     <row r="97" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A97" s="22" t="s">
+      <c r="A97" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="B97" s="23" t="s">
+      <c r="B97" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="C97" s="23"/>
-      <c r="D97" s="23"/>
-      <c r="E97" s="23"/>
-      <c r="F97" s="23"/>
-      <c r="G97" s="23"/>
-      <c r="H97" s="23"/>
-      <c r="I97" s="23"/>
-      <c r="J97" s="23"/>
-      <c r="K97" s="23">
-        <v>0</v>
-      </c>
-      <c r="L97" s="23">
+      <c r="C97" s="22"/>
+      <c r="D97" s="22"/>
+      <c r="E97" s="22"/>
+      <c r="F97" s="22"/>
+      <c r="G97" s="22"/>
+      <c r="H97" s="22"/>
+      <c r="I97" s="22"/>
+      <c r="J97" s="22"/>
+      <c r="K97" s="22">
+        <v>0</v>
+      </c>
+      <c r="L97" s="22">
         <v>0</v>
       </c>
       <c r="M97" s="2"/>
-      <c r="N97" s="19"/>
+      <c r="N97" s="18"/>
     </row>
     <row r="98" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A98" s="22" t="s">
+      <c r="A98" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="B98" s="23">
-        <v>0</v>
-      </c>
-      <c r="C98" s="23"/>
-      <c r="D98" s="23"/>
-      <c r="E98" s="23"/>
-      <c r="F98" s="23"/>
-      <c r="G98" s="23"/>
-      <c r="H98" s="23"/>
-      <c r="I98" s="23"/>
-      <c r="J98" s="23"/>
-      <c r="K98" s="23">
-        <v>0</v>
-      </c>
-      <c r="L98" s="23">
+      <c r="B98" s="22">
+        <v>0</v>
+      </c>
+      <c r="C98" s="22"/>
+      <c r="D98" s="22"/>
+      <c r="E98" s="22"/>
+      <c r="F98" s="22"/>
+      <c r="G98" s="22"/>
+      <c r="H98" s="22"/>
+      <c r="I98" s="22"/>
+      <c r="J98" s="22"/>
+      <c r="K98" s="22">
+        <v>0</v>
+      </c>
+      <c r="L98" s="22">
         <v>0</v>
       </c>
       <c r="M98" s="2"/>
-      <c r="N98" s="19"/>
+      <c r="N98" s="18"/>
     </row>
     <row r="99" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A99" s="22" t="s">
+      <c r="A99" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="B99" s="23">
-        <v>0</v>
-      </c>
-      <c r="C99" s="23"/>
-      <c r="D99" s="23"/>
-      <c r="E99" s="23"/>
-      <c r="F99" s="23"/>
-      <c r="G99" s="23"/>
-      <c r="H99" s="23"/>
-      <c r="I99" s="23"/>
-      <c r="J99" s="23"/>
-      <c r="K99" s="23">
-        <v>0</v>
-      </c>
-      <c r="L99" s="23">
+      <c r="B99" s="22">
+        <v>0</v>
+      </c>
+      <c r="C99" s="22"/>
+      <c r="D99" s="22"/>
+      <c r="E99" s="22"/>
+      <c r="F99" s="22"/>
+      <c r="G99" s="22"/>
+      <c r="H99" s="22"/>
+      <c r="I99" s="22"/>
+      <c r="J99" s="22"/>
+      <c r="K99" s="22">
+        <v>0</v>
+      </c>
+      <c r="L99" s="22">
         <v>0</v>
       </c>
       <c r="M99" s="2"/>
-      <c r="N99" s="19"/>
+      <c r="N99" s="18"/>
     </row>
     <row r="100" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A100" s="22" t="s">
+      <c r="A100" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="B100" s="23">
+      <c r="B100" s="22">
         <v>2</v>
       </c>
-      <c r="C100" s="23"/>
-      <c r="D100" s="23"/>
-      <c r="E100" s="23"/>
-      <c r="F100" s="23"/>
-      <c r="G100" s="23"/>
-      <c r="H100" s="23"/>
-      <c r="I100" s="23"/>
-      <c r="J100" s="23"/>
-      <c r="K100" s="23">
+      <c r="C100" s="22"/>
+      <c r="D100" s="22"/>
+      <c r="E100" s="22"/>
+      <c r="F100" s="22"/>
+      <c r="G100" s="22"/>
+      <c r="H100" s="22"/>
+      <c r="I100" s="22"/>
+      <c r="J100" s="22"/>
+      <c r="K100" s="22">
         <v>2</v>
       </c>
-      <c r="L100" s="23">
+      <c r="L100" s="22">
         <v>2</v>
       </c>
       <c r="M100" s="2"/>
-      <c r="N100" s="19"/>
+      <c r="N100" s="18"/>
     </row>
     <row r="101" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A101" s="22" t="s">
+      <c r="A101" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="B101" s="23">
+      <c r="B101" s="22">
         <v>60000000</v>
       </c>
-      <c r="C101" s="23"/>
-      <c r="D101" s="23"/>
-      <c r="E101" s="23"/>
-      <c r="F101" s="23"/>
-      <c r="G101" s="23"/>
-      <c r="H101" s="23"/>
-      <c r="I101" s="23"/>
-      <c r="J101" s="23"/>
-      <c r="K101" s="23">
+      <c r="C101" s="22"/>
+      <c r="D101" s="22"/>
+      <c r="E101" s="22"/>
+      <c r="F101" s="22"/>
+      <c r="G101" s="22"/>
+      <c r="H101" s="22"/>
+      <c r="I101" s="22"/>
+      <c r="J101" s="22"/>
+      <c r="K101" s="22">
         <v>60000000</v>
       </c>
-      <c r="L101" s="23">
+      <c r="L101" s="22">
         <v>60000000</v>
       </c>
       <c r="M101" s="2"/>
-      <c r="N101" s="19"/>
+      <c r="N101" s="18"/>
     </row>
     <row r="102" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A102" s="22" t="s">
+      <c r="A102" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="B102" s="23" t="s">
+      <c r="B102" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="C102" s="23" t="s">
+      <c r="C102" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="D102" s="23" t="s">
+      <c r="D102" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="E102" s="23" t="s">
+      <c r="E102" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="F102" s="23" t="s">
+      <c r="F102" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="G102" s="23" t="s">
+      <c r="G102" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="H102" s="23" t="s">
+      <c r="H102" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="I102" s="23" t="s">
+      <c r="I102" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="J102" s="23" t="s">
+      <c r="J102" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="K102" s="23">
-        <v>0</v>
-      </c>
-      <c r="L102" s="23">
+      <c r="K102" s="22">
+        <v>0</v>
+      </c>
+      <c r="L102" s="22">
         <v>0</v>
       </c>
       <c r="M102" s="2"/>
-      <c r="N102" s="19"/>
+      <c r="N102" s="18"/>
     </row>
     <row r="103" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A103" s="22" t="s">
+      <c r="A103" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="B103" s="23">
+      <c r="B103" s="22">
         <v>620000</v>
       </c>
-      <c r="C103" s="23"/>
-      <c r="D103" s="23"/>
-      <c r="E103" s="23"/>
-      <c r="F103" s="23"/>
-      <c r="G103" s="23"/>
-      <c r="H103" s="23"/>
-      <c r="I103" s="23"/>
-      <c r="J103" s="23"/>
-      <c r="K103" s="23">
+      <c r="C103" s="22"/>
+      <c r="D103" s="22"/>
+      <c r="E103" s="22"/>
+      <c r="F103" s="22"/>
+      <c r="G103" s="22"/>
+      <c r="H103" s="22"/>
+      <c r="I103" s="22"/>
+      <c r="J103" s="22"/>
+      <c r="K103" s="22">
         <v>620000</v>
       </c>
-      <c r="L103" s="23">
+      <c r="L103" s="22">
         <v>620000</v>
       </c>
       <c r="M103" s="2"/>
-      <c r="N103" s="19"/>
+      <c r="N103" s="18"/>
     </row>
     <row r="104" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A104" s="22" t="s">
+      <c r="A104" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="B104" s="23">
+      <c r="B104" s="22">
         <v>0.5</v>
       </c>
-      <c r="C104" s="23">
+      <c r="C104" s="22">
         <v>0.5</v>
       </c>
-      <c r="D104" s="23"/>
-      <c r="E104" s="23">
+      <c r="D104" s="22"/>
+      <c r="E104" s="22">
         <v>0.5</v>
       </c>
-      <c r="F104" s="23">
+      <c r="F104" s="22">
         <v>0.5</v>
       </c>
-      <c r="G104" s="23">
+      <c r="G104" s="22">
         <v>0.5</v>
       </c>
-      <c r="H104" s="23">
+      <c r="H104" s="22">
         <v>0.5</v>
       </c>
-      <c r="I104" s="23">
+      <c r="I104" s="22">
         <v>0.5</v>
       </c>
-      <c r="J104" s="23">
+      <c r="J104" s="22">
         <v>0.5</v>
       </c>
-      <c r="K104" s="23">
+      <c r="K104" s="22">
         <v>0.5</v>
       </c>
-      <c r="L104" s="23">
+      <c r="L104" s="22">
         <v>0.5</v>
       </c>
       <c r="M104" s="2"/>
-      <c r="N104" s="19"/>
+      <c r="N104" s="18"/>
     </row>
     <row r="105" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A105" s="22" t="s">
+      <c r="A105" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="B105" s="23">
+      <c r="B105" s="22">
         <v>0.2</v>
       </c>
-      <c r="C105" s="23">
+      <c r="C105" s="22">
         <v>0.2</v>
       </c>
-      <c r="D105" s="23"/>
-      <c r="E105" s="23">
+      <c r="D105" s="22"/>
+      <c r="E105" s="22">
         <v>0.2</v>
       </c>
-      <c r="F105" s="23">
+      <c r="F105" s="22">
         <v>0.2</v>
       </c>
-      <c r="G105" s="23">
+      <c r="G105" s="22">
         <v>0.2</v>
       </c>
-      <c r="H105" s="23">
+      <c r="H105" s="22">
         <v>0.2</v>
       </c>
-      <c r="I105" s="23">
+      <c r="I105" s="22">
         <v>0.2</v>
       </c>
-      <c r="J105" s="23">
+      <c r="J105" s="22">
         <v>0.2</v>
       </c>
-      <c r="K105" s="23">
+      <c r="K105" s="22">
         <v>0.2</v>
       </c>
-      <c r="L105" s="23">
+      <c r="L105" s="22">
         <v>0.2</v>
       </c>
       <c r="M105" s="2"/>
-      <c r="N105" s="19"/>
+      <c r="N105" s="18"/>
     </row>
     <row r="106" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A106" s="22" t="s">
+      <c r="A106" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="B106" s="23" t="s">
+      <c r="B106" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="C106" s="23" t="s">
+      <c r="C106" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="D106" s="23" t="s">
+      <c r="D106" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="E106" s="23" t="s">
+      <c r="E106" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="F106" s="23" t="s">
+      <c r="F106" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="G106" s="23" t="s">
+      <c r="G106" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="H106" s="23" t="s">
+      <c r="H106" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="I106" s="23" t="s">
+      <c r="I106" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="J106" s="23" t="s">
+      <c r="J106" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="K106" s="23">
-        <v>0</v>
-      </c>
-      <c r="L106" s="23">
+      <c r="K106" s="22">
+        <v>0</v>
+      </c>
+      <c r="L106" s="22">
         <v>0</v>
       </c>
       <c r="M106" s="2"/>
-      <c r="N106" s="19"/>
+      <c r="N106" s="18"/>
     </row>
     <row r="107" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A107" s="22" t="s">
+      <c r="A107" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="B107" s="23" t="s">
+      <c r="B107" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="C107" s="23">
-        <v>0</v>
-      </c>
-      <c r="D107" s="23">
-        <v>0</v>
-      </c>
-      <c r="E107" s="23" t="s">
+      <c r="C107" s="22">
+        <v>0</v>
+      </c>
+      <c r="D107" s="22">
+        <v>0</v>
+      </c>
+      <c r="E107" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="F107" s="23" t="s">
+      <c r="F107" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="G107" s="23">
-        <v>0</v>
-      </c>
-      <c r="H107" s="23">
-        <v>0</v>
-      </c>
-      <c r="I107" s="23" t="s">
+      <c r="G107" s="22">
+        <v>0</v>
+      </c>
+      <c r="H107" s="22">
+        <v>0</v>
+      </c>
+      <c r="I107" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="J107" s="23">
-        <v>0</v>
-      </c>
-      <c r="K107" s="23">
-        <v>0</v>
-      </c>
-      <c r="L107" s="23">
+      <c r="J107" s="22">
+        <v>0</v>
+      </c>
+      <c r="K107" s="22">
+        <v>0</v>
+      </c>
+      <c r="L107" s="22">
         <v>0</v>
       </c>
       <c r="M107" s="2"/>
-      <c r="N107" s="19"/>
+      <c r="N107" s="18"/>
     </row>
     <row r="108" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A108" s="22" t="s">
+      <c r="A108" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="B108" s="23">
+      <c r="B108" s="22">
         <v>0.2</v>
       </c>
-      <c r="C108" s="23"/>
-      <c r="D108" s="23"/>
-      <c r="E108" s="23"/>
-      <c r="F108" s="23"/>
-      <c r="G108" s="23"/>
-      <c r="H108" s="23"/>
-      <c r="I108" s="23"/>
-      <c r="J108" s="23"/>
-      <c r="K108" s="23">
+      <c r="C108" s="22"/>
+      <c r="D108" s="22"/>
+      <c r="E108" s="22"/>
+      <c r="F108" s="22"/>
+      <c r="G108" s="22"/>
+      <c r="H108" s="22"/>
+      <c r="I108" s="22"/>
+      <c r="J108" s="22"/>
+      <c r="K108" s="22">
         <v>0.2</v>
       </c>
-      <c r="L108" s="23">
+      <c r="L108" s="22">
         <v>0.2</v>
       </c>
       <c r="M108" s="2"/>
-      <c r="N108" s="19"/>
+      <c r="N108" s="18"/>
     </row>
     <row r="109" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A109" s="22" t="s">
+      <c r="A109" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="B109" s="24">
+      <c r="B109" s="23">
         <v>375000000000</v>
       </c>
-      <c r="C109" s="23"/>
-      <c r="D109" s="23"/>
-      <c r="E109" s="23"/>
-      <c r="F109" s="23"/>
-      <c r="G109" s="23"/>
-      <c r="H109" s="23"/>
-      <c r="I109" s="23"/>
-      <c r="J109" s="23"/>
-      <c r="K109" s="24">
+      <c r="C109" s="22"/>
+      <c r="D109" s="22"/>
+      <c r="E109" s="22"/>
+      <c r="F109" s="22"/>
+      <c r="G109" s="22"/>
+      <c r="H109" s="22"/>
+      <c r="I109" s="22"/>
+      <c r="J109" s="22"/>
+      <c r="K109" s="23">
         <v>375000000000</v>
       </c>
-      <c r="L109" s="24">
+      <c r="L109" s="23">
         <v>375000000000</v>
       </c>
       <c r="M109" s="3"/>
-      <c r="N109" s="20"/>
+      <c r="N109" s="19"/>
     </row>
     <row r="110" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A110" s="22" t="s">
+      <c r="A110" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="B110" s="23">
-        <v>0</v>
-      </c>
-      <c r="C110" s="23"/>
-      <c r="D110" s="23"/>
-      <c r="E110" s="23"/>
-      <c r="F110" s="23"/>
-      <c r="G110" s="23"/>
-      <c r="H110" s="23"/>
-      <c r="I110" s="23"/>
-      <c r="J110" s="23"/>
-      <c r="K110" s="23">
-        <v>0</v>
-      </c>
-      <c r="L110" s="23">
+      <c r="B110" s="22">
+        <v>0</v>
+      </c>
+      <c r="C110" s="22"/>
+      <c r="D110" s="22"/>
+      <c r="E110" s="22"/>
+      <c r="F110" s="22"/>
+      <c r="G110" s="22"/>
+      <c r="H110" s="22"/>
+      <c r="I110" s="22"/>
+      <c r="J110" s="22"/>
+      <c r="K110" s="22">
+        <v>0</v>
+      </c>
+      <c r="L110" s="22">
         <v>0</v>
       </c>
       <c r="M110" s="2"/>
-      <c r="N110" s="19"/>
+      <c r="N110" s="18"/>
     </row>
     <row r="111" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A111" s="22" t="s">
+      <c r="A111" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="B111" s="24">
+      <c r="B111" s="23">
         <v>-7.2799999999999995E-7</v>
       </c>
-      <c r="C111" s="23"/>
-      <c r="D111" s="23"/>
-      <c r="E111" s="23"/>
-      <c r="F111" s="23"/>
-      <c r="G111" s="23"/>
-      <c r="H111" s="23"/>
-      <c r="I111" s="23"/>
-      <c r="J111" s="23"/>
-      <c r="K111" s="23">
+      <c r="C111" s="22"/>
+      <c r="D111" s="22"/>
+      <c r="E111" s="22"/>
+      <c r="F111" s="22"/>
+      <c r="G111" s="22"/>
+      <c r="H111" s="22"/>
+      <c r="I111" s="22"/>
+      <c r="J111" s="22"/>
+      <c r="K111" s="22">
         <v>-7.2799999999999995E-7</v>
       </c>
-      <c r="L111" s="23">
+      <c r="L111" s="22">
         <v>-7.2799999999999995E-7</v>
       </c>
       <c r="M111" s="2"/>
-      <c r="N111" s="19"/>
+      <c r="N111" s="18"/>
     </row>
     <row r="112" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A112" s="22" t="s">
+      <c r="A112" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="B112" s="23" t="s">
+      <c r="B112" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="C112" s="23"/>
-      <c r="D112" s="23"/>
-      <c r="E112" s="23"/>
-      <c r="F112" s="23"/>
-      <c r="G112" s="23"/>
-      <c r="H112" s="23"/>
-      <c r="I112" s="23"/>
-      <c r="J112" s="23"/>
-      <c r="K112" s="23">
-        <v>0</v>
-      </c>
-      <c r="L112" s="23">
+      <c r="C112" s="22"/>
+      <c r="D112" s="22"/>
+      <c r="E112" s="22"/>
+      <c r="F112" s="22"/>
+      <c r="G112" s="22"/>
+      <c r="H112" s="22"/>
+      <c r="I112" s="22"/>
+      <c r="J112" s="22"/>
+      <c r="K112" s="22">
+        <v>0</v>
+      </c>
+      <c r="L112" s="22">
         <v>0</v>
       </c>
       <c r="M112" s="2"/>
-      <c r="N112" s="19"/>
+      <c r="N112" s="18"/>
     </row>
     <row r="113" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A113" s="22" t="s">
+      <c r="A113" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="B113" s="24">
+      <c r="B113" s="23">
         <v>2E-8</v>
       </c>
-      <c r="C113" s="23"/>
-      <c r="D113" s="23"/>
-      <c r="E113" s="23"/>
-      <c r="F113" s="23"/>
-      <c r="G113" s="23"/>
-      <c r="H113" s="23"/>
-      <c r="I113" s="23"/>
-      <c r="J113" s="23"/>
-      <c r="K113" s="23">
+      <c r="C113" s="22"/>
+      <c r="D113" s="22"/>
+      <c r="E113" s="22"/>
+      <c r="F113" s="22"/>
+      <c r="G113" s="22"/>
+      <c r="H113" s="22"/>
+      <c r="I113" s="22"/>
+      <c r="J113" s="22"/>
+      <c r="K113" s="22">
         <v>2E-8</v>
       </c>
-      <c r="L113" s="23">
+      <c r="L113" s="22">
         <v>2E-8</v>
       </c>
       <c r="M113" s="2"/>
-      <c r="N113" s="19"/>
+      <c r="N113" s="18"/>
     </row>
     <row r="114" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A114" s="22" t="s">
+      <c r="A114" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="B114" s="24">
+      <c r="B114" s="23">
         <v>1.4999999999999999E-8</v>
       </c>
-      <c r="C114" s="23"/>
-      <c r="D114" s="23"/>
-      <c r="E114" s="23"/>
-      <c r="F114" s="23"/>
-      <c r="G114" s="23"/>
-      <c r="H114" s="23"/>
-      <c r="I114" s="23"/>
-      <c r="J114" s="23"/>
-      <c r="K114" s="23">
+      <c r="C114" s="22"/>
+      <c r="D114" s="22"/>
+      <c r="E114" s="22"/>
+      <c r="F114" s="22"/>
+      <c r="G114" s="22"/>
+      <c r="H114" s="22"/>
+      <c r="I114" s="22"/>
+      <c r="J114" s="22"/>
+      <c r="K114" s="22">
         <v>1.4999999999999999E-8</v>
       </c>
-      <c r="L114" s="23">
+      <c r="L114" s="22">
         <v>1.4999999999999999E-8</v>
       </c>
       <c r="M114" s="2"/>
-      <c r="N114" s="19"/>
+      <c r="N114" s="18"/>
     </row>
     <row r="115" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A115" s="22" t="s">
+      <c r="A115" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="B115" s="24">
+      <c r="B115" s="23">
         <v>3180000000000000</v>
       </c>
-      <c r="C115" s="23"/>
-      <c r="D115" s="23"/>
-      <c r="E115" s="23"/>
-      <c r="F115" s="23"/>
-      <c r="G115" s="23"/>
-      <c r="H115" s="23"/>
-      <c r="I115" s="23"/>
-      <c r="J115" s="23"/>
-      <c r="K115" s="24">
+      <c r="C115" s="22"/>
+      <c r="D115" s="22"/>
+      <c r="E115" s="22"/>
+      <c r="F115" s="22"/>
+      <c r="G115" s="22"/>
+      <c r="H115" s="22"/>
+      <c r="I115" s="22"/>
+      <c r="J115" s="22"/>
+      <c r="K115" s="23">
         <v>3180000000000000</v>
       </c>
-      <c r="L115" s="24">
+      <c r="L115" s="23">
         <v>3180000000000000</v>
       </c>
       <c r="M115" s="3"/>
-      <c r="N115" s="20"/>
+      <c r="N115" s="19"/>
     </row>
     <row r="116" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A116" s="22" t="s">
+      <c r="A116" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="B116" s="23">
+      <c r="B116" s="22">
         <v>1.1200000000000001</v>
       </c>
-      <c r="C116" s="23"/>
-      <c r="D116" s="23"/>
-      <c r="E116" s="23"/>
-      <c r="F116" s="23"/>
-      <c r="G116" s="23"/>
-      <c r="H116" s="23"/>
-      <c r="I116" s="23"/>
-      <c r="J116" s="23"/>
-      <c r="K116" s="23">
+      <c r="C116" s="22"/>
+      <c r="D116" s="22"/>
+      <c r="E116" s="22"/>
+      <c r="F116" s="22"/>
+      <c r="G116" s="22"/>
+      <c r="H116" s="22"/>
+      <c r="I116" s="22"/>
+      <c r="J116" s="22"/>
+      <c r="K116" s="22">
         <v>1.1200000000000001</v>
       </c>
-      <c r="L116" s="23">
+      <c r="L116" s="22">
         <v>1.1200000000000001</v>
       </c>
       <c r="M116" s="2"/>
-      <c r="N116" s="19"/>
+      <c r="N116" s="18"/>
     </row>
     <row r="117" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A117" s="22" t="s">
+      <c r="A117" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="B117" s="23">
+      <c r="B117" s="22">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C117" s="23"/>
-      <c r="D117" s="23"/>
-      <c r="E117" s="23"/>
-      <c r="F117" s="23"/>
-      <c r="G117" s="23"/>
-      <c r="H117" s="23"/>
-      <c r="I117" s="23"/>
-      <c r="J117" s="23"/>
-      <c r="K117" s="23">
+      <c r="C117" s="22"/>
+      <c r="D117" s="22"/>
+      <c r="E117" s="22"/>
+      <c r="F117" s="22"/>
+      <c r="G117" s="22"/>
+      <c r="H117" s="22"/>
+      <c r="I117" s="22"/>
+      <c r="J117" s="22"/>
+      <c r="K117" s="22">
         <v>2.2000000000000002</v>
       </c>
-      <c r="L117" s="23">
+      <c r="L117" s="22">
         <v>2.2000000000000002</v>
       </c>
       <c r="M117" s="2"/>
-      <c r="N117" s="19"/>
+      <c r="N117" s="18"/>
     </row>
     <row r="118" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A118" s="22" t="s">
+      <c r="A118" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="B118" s="23" t="s">
+      <c r="B118" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="C118" s="23"/>
-      <c r="D118" s="23"/>
-      <c r="E118" s="23"/>
-      <c r="F118" s="23"/>
-      <c r="G118" s="23"/>
-      <c r="H118" s="23"/>
-      <c r="I118" s="23"/>
-      <c r="J118" s="23"/>
-      <c r="K118" s="23">
-        <v>0</v>
-      </c>
-      <c r="L118" s="23">
+      <c r="C118" s="22"/>
+      <c r="D118" s="22"/>
+      <c r="E118" s="22"/>
+      <c r="F118" s="22"/>
+      <c r="G118" s="22"/>
+      <c r="H118" s="22"/>
+      <c r="I118" s="22"/>
+      <c r="J118" s="22"/>
+      <c r="K118" s="22">
+        <v>0</v>
+      </c>
+      <c r="L118" s="22">
         <v>0</v>
       </c>
       <c r="M118" s="2"/>
-      <c r="N118" s="19"/>
+      <c r="N118" s="18"/>
     </row>
     <row r="119" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A119" s="22" t="s">
+      <c r="A119" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="B119" s="23">
-        <v>0</v>
-      </c>
-      <c r="C119" s="23"/>
-      <c r="D119" s="23"/>
-      <c r="E119" s="23"/>
-      <c r="F119" s="23"/>
-      <c r="G119" s="23"/>
-      <c r="H119" s="23"/>
-      <c r="I119" s="23"/>
-      <c r="J119" s="23"/>
-      <c r="K119" s="23">
-        <v>0</v>
-      </c>
-      <c r="L119" s="23">
+      <c r="B119" s="22">
+        <v>0</v>
+      </c>
+      <c r="C119" s="22"/>
+      <c r="D119" s="22"/>
+      <c r="E119" s="22"/>
+      <c r="F119" s="22"/>
+      <c r="G119" s="22"/>
+      <c r="H119" s="22"/>
+      <c r="I119" s="22"/>
+      <c r="J119" s="22"/>
+      <c r="K119" s="22">
+        <v>0</v>
+      </c>
+      <c r="L119" s="22">
         <v>0</v>
       </c>
       <c r="M119" s="2"/>
-      <c r="N119" s="19"/>
+      <c r="N119" s="18"/>
     </row>
     <row r="120" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A120" s="22" t="s">
+      <c r="A120" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="B120" s="24">
+      <c r="B120" s="23">
         <v>2.7799999999999998E-13</v>
       </c>
-      <c r="C120" s="23"/>
-      <c r="D120" s="23"/>
-      <c r="E120" s="23"/>
-      <c r="F120" s="23"/>
-      <c r="G120" s="23"/>
-      <c r="H120" s="23"/>
-      <c r="I120" s="23"/>
-      <c r="J120" s="23"/>
-      <c r="K120" s="24">
+      <c r="C120" s="22"/>
+      <c r="D120" s="22"/>
+      <c r="E120" s="22"/>
+      <c r="F120" s="22"/>
+      <c r="G120" s="22"/>
+      <c r="H120" s="22"/>
+      <c r="I120" s="22"/>
+      <c r="J120" s="22"/>
+      <c r="K120" s="23">
         <v>2.7799999999999998E-13</v>
       </c>
-      <c r="L120" s="24">
+      <c r="L120" s="23">
         <v>2.7799999999999998E-13</v>
       </c>
       <c r="M120" s="3"/>
-      <c r="N120" s="20"/>
+      <c r="N120" s="19"/>
     </row>
     <row r="121" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A121" s="22" t="s">
+      <c r="A121" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="B121" s="23">
+      <c r="B121" s="22">
         <v>2</v>
       </c>
-      <c r="C121" s="23"/>
-      <c r="D121" s="23"/>
-      <c r="E121" s="23"/>
-      <c r="F121" s="23"/>
-      <c r="G121" s="23"/>
-      <c r="H121" s="23"/>
-      <c r="I121" s="23"/>
-      <c r="J121" s="23"/>
-      <c r="K121" s="23">
+      <c r="C121" s="22"/>
+      <c r="D121" s="22"/>
+      <c r="E121" s="22"/>
+      <c r="F121" s="22"/>
+      <c r="G121" s="22"/>
+      <c r="H121" s="22"/>
+      <c r="I121" s="22"/>
+      <c r="J121" s="22"/>
+      <c r="K121" s="22">
         <v>2</v>
       </c>
-      <c r="L121" s="23">
+      <c r="L121" s="22">
         <v>2</v>
       </c>
       <c r="M121" s="2"/>
-      <c r="N121" s="19"/>
+      <c r="N121" s="18"/>
     </row>
     <row r="122" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A122" s="22" t="s">
+      <c r="A122" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="B122" s="23">
+      <c r="B122" s="22">
         <v>375000000</v>
       </c>
-      <c r="C122" s="23"/>
-      <c r="D122" s="23"/>
-      <c r="E122" s="23"/>
-      <c r="F122" s="23"/>
-      <c r="G122" s="23"/>
-      <c r="H122" s="23"/>
-      <c r="I122" s="23"/>
-      <c r="J122" s="23"/>
-      <c r="K122" s="23">
+      <c r="C122" s="22"/>
+      <c r="D122" s="22"/>
+      <c r="E122" s="22"/>
+      <c r="F122" s="22"/>
+      <c r="G122" s="22"/>
+      <c r="H122" s="22"/>
+      <c r="I122" s="22"/>
+      <c r="J122" s="22"/>
+      <c r="K122" s="22">
         <v>375000000</v>
       </c>
-      <c r="L122" s="23">
+      <c r="L122" s="22">
         <v>375000000</v>
       </c>
       <c r="M122" s="2"/>
-      <c r="N122" s="19"/>
+      <c r="N122" s="18"/>
     </row>
     <row r="123" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A123" s="22" t="s">
+      <c r="A123" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="B123" s="23" t="s">
+      <c r="B123" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="C123" s="23">
+      <c r="C123" s="22">
         <v>1</v>
       </c>
-      <c r="D123" s="23">
+      <c r="D123" s="22">
         <v>1</v>
       </c>
-      <c r="E123" s="23">
+      <c r="E123" s="22">
         <v>1</v>
       </c>
-      <c r="F123" s="23">
+      <c r="F123" s="22">
         <v>1</v>
       </c>
-      <c r="G123" s="23">
+      <c r="G123" s="22">
         <v>1</v>
       </c>
-      <c r="H123" s="23">
+      <c r="H123" s="22">
         <v>1</v>
       </c>
-      <c r="I123" s="23">
+      <c r="I123" s="22">
         <v>1</v>
       </c>
-      <c r="J123" s="23">
+      <c r="J123" s="22">
         <v>1</v>
       </c>
-      <c r="K123" s="23">
+      <c r="K123" s="22">
         <v>1</v>
       </c>
-      <c r="L123" s="23">
+      <c r="L123" s="22">
         <v>1</v>
       </c>
       <c r="M123" s="2"/>
-      <c r="N123" s="19"/>
+      <c r="N123" s="18"/>
     </row>
     <row r="124" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A124" s="22" t="s">
+      <c r="A124" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="B124" s="23" t="s">
+      <c r="B124" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="C124" s="23" t="s">
+      <c r="C124" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="D124" s="23" t="s">
+      <c r="D124" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="E124" s="23" t="s">
+      <c r="E124" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="F124" s="23" t="s">
+      <c r="F124" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="G124" s="23" t="s">
+      <c r="G124" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="H124" s="23" t="s">
+      <c r="H124" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="I124" s="23" t="s">
+      <c r="I124" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="J124" s="23" t="s">
+      <c r="J124" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="K124" s="23">
-        <v>0</v>
-      </c>
-      <c r="L124" s="23">
+      <c r="K124" s="22">
+        <v>0</v>
+      </c>
+      <c r="L124" s="22">
         <v>0</v>
       </c>
       <c r="M124" s="2"/>
-      <c r="N124" s="19"/>
+      <c r="N124" s="18"/>
     </row>
     <row r="125" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A125" s="22" t="s">
+      <c r="A125" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="B125" s="23" t="s">
+      <c r="B125" s="22" t="s">
         <v>197</v>
       </c>
-      <c r="C125" s="23" t="s">
+      <c r="C125" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="D125" s="23" t="s">
+      <c r="D125" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="E125" s="23" t="s">
+      <c r="E125" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="F125" s="23" t="s">
+      <c r="F125" s="22" t="s">
         <v>201</v>
       </c>
-      <c r="G125" s="23" t="s">
+      <c r="G125" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="H125" s="23" t="s">
+      <c r="H125" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="I125" s="23" t="s">
+      <c r="I125" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="J125" s="23" t="s">
+      <c r="J125" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="K125" s="23">
-        <v>0</v>
-      </c>
-      <c r="L125" s="23">
+      <c r="K125" s="22">
+        <v>0</v>
+      </c>
+      <c r="L125" s="22">
         <v>0</v>
       </c>
       <c r="M125" s="2"/>
-      <c r="N125" s="19"/>
+      <c r="N125" s="18"/>
     </row>
     <row r="126" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A126" s="22" t="s">
+      <c r="A126" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="B126" s="23">
+      <c r="B126" s="22">
         <v>298.14999999999998</v>
       </c>
-      <c r="C126" s="23">
+      <c r="C126" s="22">
         <v>298.14999999999998</v>
       </c>
-      <c r="D126" s="23">
+      <c r="D126" s="22">
         <v>296.14999999999998</v>
       </c>
-      <c r="E126" s="23">
+      <c r="E126" s="22">
         <v>298.14999999999998</v>
       </c>
-      <c r="F126" s="23">
+      <c r="F126" s="22">
         <v>298.14999999999998</v>
       </c>
-      <c r="G126" s="23">
+      <c r="G126" s="22">
         <v>298.14999999999998</v>
       </c>
-      <c r="H126" s="23">
+      <c r="H126" s="22">
         <v>298.14999999999998</v>
       </c>
-      <c r="I126" s="23">
+      <c r="I126" s="22">
         <v>298.14999999999998</v>
       </c>
-      <c r="J126" s="23">
+      <c r="J126" s="22">
         <v>298.14999999999998</v>
       </c>
-      <c r="K126" s="23">
+      <c r="K126" s="22">
         <v>296.14999999999998</v>
       </c>
-      <c r="L126" s="23">
+      <c r="L126" s="22">
         <v>298.14999999999998</v>
       </c>
       <c r="M126" s="2"/>
-      <c r="N126" s="19"/>
+      <c r="N126" s="18"/>
     </row>
     <row r="127" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A127" s="22" t="s">
+      <c r="A127" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="B127" s="23">
+      <c r="B127" s="22">
         <v>298.14999999999998</v>
       </c>
-      <c r="C127" s="23">
+      <c r="C127" s="22">
         <v>298.14999999999998</v>
       </c>
-      <c r="D127" s="23">
+      <c r="D127" s="22">
         <v>298.14999999999998</v>
       </c>
-      <c r="E127" s="23">
+      <c r="E127" s="22">
         <v>298.14999999999998</v>
       </c>
-      <c r="F127" s="23">
+      <c r="F127" s="22">
         <v>298.14999999999998</v>
       </c>
-      <c r="G127" s="23">
+      <c r="G127" s="22">
         <v>298.14999999999998</v>
       </c>
-      <c r="H127" s="23">
+      <c r="H127" s="22">
         <v>298.14999999999998</v>
       </c>
-      <c r="I127" s="23">
+      <c r="I127" s="22">
         <v>298.14999999999998</v>
       </c>
-      <c r="J127" s="23">
+      <c r="J127" s="22">
         <v>298.14999999999998</v>
       </c>
-      <c r="K127" s="23">
+      <c r="K127" s="22">
         <v>298.14999999999998</v>
       </c>
-      <c r="L127" s="23">
+      <c r="L127" s="22">
         <v>298.14999999999998</v>
       </c>
       <c r="M127" s="2"/>
-      <c r="N127" s="19"/>
+      <c r="N127" s="18"/>
     </row>
     <row r="128" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A128" s="22" t="s">
+      <c r="A128" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="B128" s="23">
+      <c r="B128" s="22">
         <v>1</v>
       </c>
-      <c r="C128" s="23">
+      <c r="C128" s="22">
         <v>1</v>
       </c>
-      <c r="D128" s="23">
+      <c r="D128" s="22">
         <v>1</v>
       </c>
-      <c r="E128" s="23">
+      <c r="E128" s="22">
         <v>1</v>
       </c>
-      <c r="F128" s="23">
+      <c r="F128" s="22">
         <v>1</v>
       </c>
-      <c r="G128" s="23">
+      <c r="G128" s="22">
         <v>1</v>
       </c>
-      <c r="H128" s="23">
+      <c r="H128" s="22">
         <v>1</v>
       </c>
-      <c r="I128" s="23">
+      <c r="I128" s="22">
         <v>1</v>
       </c>
-      <c r="J128" s="23">
+      <c r="J128" s="22">
         <v>1</v>
       </c>
-      <c r="K128" s="23">
+      <c r="K128" s="22">
         <v>1</v>
       </c>
-      <c r="L128" s="23">
+      <c r="L128" s="22">
         <v>1</v>
       </c>
       <c r="M128" s="2"/>
-      <c r="N128" s="19"/>
+      <c r="N128" s="18"/>
     </row>
     <row r="129" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A129" s="22" t="s">
+      <c r="A129" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="B129" s="23">
+      <c r="B129" s="22">
         <v>298.14999999999998</v>
       </c>
-      <c r="C129" s="23">
+      <c r="C129" s="22">
         <v>298.14999999999998</v>
       </c>
-      <c r="D129" s="23">
+      <c r="D129" s="22">
         <v>298.14999999999998</v>
       </c>
-      <c r="E129" s="23">
+      <c r="E129" s="22">
         <v>298.14999999999998</v>
       </c>
-      <c r="F129" s="23">
+      <c r="F129" s="22">
         <v>298.14999999999998</v>
       </c>
-      <c r="G129" s="23">
+      <c r="G129" s="22">
         <v>298.14999999999998</v>
       </c>
-      <c r="H129" s="23">
+      <c r="H129" s="22">
         <v>298.14999999999998</v>
       </c>
-      <c r="I129" s="23">
+      <c r="I129" s="22">
         <v>298.14999999999998</v>
       </c>
-      <c r="J129" s="23">
+      <c r="J129" s="22">
         <v>298.14999999999998</v>
       </c>
-      <c r="K129" s="23">
+      <c r="K129" s="22">
         <v>298.14999999999998</v>
       </c>
-      <c r="L129" s="23">
+      <c r="L129" s="22">
         <v>298.14999999999998</v>
       </c>
       <c r="M129" s="2"/>
-      <c r="N129" s="19"/>
+      <c r="N129" s="18"/>
     </row>
     <row r="130" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
@@ -6582,129 +6597,129 @@
       <c r="K130" s="2"/>
       <c r="L130" s="2"/>
       <c r="M130" s="2"/>
-      <c r="N130" s="19"/>
-    </row>
-    <row r="131" spans="1:14" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A131" s="25" t="s">
+      <c r="N130" s="18"/>
+    </row>
+    <row r="131" spans="1:14" s="26" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A131" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B131" s="26">
+      <c r="B131" s="25">
         <v>0.4</v>
       </c>
-      <c r="C131" s="26">
+      <c r="C131" s="25">
         <v>0.4</v>
       </c>
-      <c r="D131" s="26">
+      <c r="D131" s="25">
         <v>0.4</v>
       </c>
-      <c r="E131" s="26">
+      <c r="E131" s="25">
         <v>0.4</v>
       </c>
-      <c r="F131" s="26">
+      <c r="F131" s="25">
         <v>0.4</v>
       </c>
-      <c r="G131" s="26">
+      <c r="G131" s="25">
         <v>0.4</v>
       </c>
-      <c r="H131" s="26"/>
-      <c r="I131" s="26">
-        <v>0</v>
-      </c>
-      <c r="J131" s="26">
+      <c r="H131" s="25"/>
+      <c r="I131" s="25">
+        <v>0</v>
+      </c>
+      <c r="J131" s="25">
         <v>0.4</v>
       </c>
-      <c r="K131" s="26">
-        <v>0</v>
-      </c>
-      <c r="L131" s="26">
+      <c r="K131" s="25">
+        <v>0</v>
+      </c>
+      <c r="L131" s="25">
         <v>0.4</v>
       </c>
-      <c r="M131" s="26">
+      <c r="M131" s="25">
         <v>10</v>
       </c>
-      <c r="N131" s="26"/>
-    </row>
-    <row r="132" spans="1:14" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A132" s="25" t="s">
+      <c r="N131" s="25"/>
+    </row>
+    <row r="132" spans="1:14" s="26" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A132" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="B132" s="26">
-        <v>0</v>
-      </c>
-      <c r="C132" s="26">
-        <v>0</v>
-      </c>
-      <c r="D132" s="26">
-        <v>0</v>
-      </c>
-      <c r="E132" s="26">
+      <c r="B132" s="25">
+        <v>0</v>
+      </c>
+      <c r="C132" s="25">
+        <v>0</v>
+      </c>
+      <c r="D132" s="25">
+        <v>0</v>
+      </c>
+      <c r="E132" s="25">
         <v>1.5</v>
       </c>
-      <c r="F132" s="26">
+      <c r="F132" s="25">
         <v>1.5</v>
       </c>
-      <c r="G132" s="26">
+      <c r="G132" s="25">
         <v>2</v>
       </c>
-      <c r="H132" s="26">
+      <c r="H132" s="25">
         <v>1.5</v>
       </c>
-      <c r="I132" s="26">
+      <c r="I132" s="25">
         <v>4</v>
       </c>
-      <c r="J132" s="26"/>
-      <c r="K132" s="26">
-        <v>0</v>
-      </c>
-      <c r="L132" s="26">
+      <c r="J132" s="25"/>
+      <c r="K132" s="25">
+        <v>0</v>
+      </c>
+      <c r="L132" s="25">
         <v>4</v>
       </c>
-      <c r="M132" s="26">
+      <c r="M132" s="25">
         <v>10</v>
       </c>
-      <c r="N132" s="26"/>
-    </row>
-    <row r="133" spans="1:14" s="27" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A133" s="25" t="s">
+      <c r="N132" s="25"/>
+    </row>
+    <row r="133" spans="1:14" s="26" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A133" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="B133" s="26">
-        <v>0</v>
-      </c>
-      <c r="C133" s="26">
-        <v>0</v>
-      </c>
-      <c r="D133" s="26">
-        <v>0</v>
-      </c>
-      <c r="E133" s="26">
+      <c r="B133" s="25">
+        <v>0</v>
+      </c>
+      <c r="C133" s="25">
+        <v>0</v>
+      </c>
+      <c r="D133" s="25">
+        <v>0</v>
+      </c>
+      <c r="E133" s="25">
         <v>1.5</v>
       </c>
-      <c r="F133" s="26">
+      <c r="F133" s="25">
         <v>1.5</v>
       </c>
-      <c r="G133" s="26">
+      <c r="G133" s="25">
         <v>2</v>
       </c>
-      <c r="H133" s="26">
+      <c r="H133" s="25">
         <v>1.5</v>
       </c>
-      <c r="I133" s="26">
+      <c r="I133" s="25">
         <v>4</v>
       </c>
-      <c r="J133" s="26">
+      <c r="J133" s="25">
         <v>1.5</v>
       </c>
-      <c r="K133" s="26">
-        <v>0</v>
-      </c>
-      <c r="L133" s="26">
+      <c r="K133" s="25">
+        <v>0</v>
+      </c>
+      <c r="L133" s="25">
         <v>4</v>
       </c>
-      <c r="M133" s="26">
+      <c r="M133" s="25">
         <v>10</v>
       </c>
-      <c r="N133" s="26"/>
+      <c r="N133" s="25"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q130">

--- a/DFN_parameter_sets/all_parameters_v2.xlsx
+++ b/DFN_parameter_sets/all_parameters_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Phd\Parameter-Calibration\DFN_parameter_sets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B615ABE9-AFE2-4EAE-954F-BEED3CEC8599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904B6055-0EFC-42FE-9193-FDAF437A0AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -174,30 +174,12 @@
     <t>Cell thermal expansion coefficient [m.K-1]</t>
   </si>
   <si>
-    <t>Negative current collector conductivity [S.m-1]</t>
-  </si>
-  <si>
-    <t>Positive current collector conductivity [S.m-1]</t>
-  </si>
-  <si>
-    <t>Negative current collector density [kg.m-3]</t>
-  </si>
-  <si>
-    <t>Positive current collector density [kg.m-3]</t>
-  </si>
-  <si>
     <t>Negative current collector specific heat capacity [J.kg-1.K-1]</t>
   </si>
   <si>
     <t>Positive current collector specific heat capacity [J.kg-1.K-1]</t>
   </si>
   <si>
-    <t>Negative current collector thermal conductivity [W.m-1.K-1]</t>
-  </si>
-  <si>
-    <t>Positive current collector thermal conductivity [W.m-1.K-1]</t>
-  </si>
-  <si>
     <t>Current function [A]</t>
   </si>
   <si>
@@ -207,9 +189,6 @@
     <t>Negative electrode conductivity [S.m-1]</t>
   </si>
   <si>
-    <t>Maximum concentration in negative electrode [mol.m-3]</t>
-  </si>
-  <si>
     <t>Negative electrode diffusivity [m2.s-1]</t>
   </si>
   <si>
@@ -258,9 +237,6 @@
     <t>&lt;function graphite_ocp_Ramadass2004 at 0x00000206D860EEE0&gt;</t>
   </si>
   <si>
-    <t>Negative electrode porosity</t>
-  </si>
-  <si>
     <t>Negative electrode active material volume fraction</t>
   </si>
   <si>
@@ -306,15 +282,9 @@
     <t>&lt;function graphite_electrolyte_exchange_current_density_Ramadass2004 at 0x00000206D860ED30&gt;</t>
   </si>
   <si>
-    <t>Negative electrode density [kg.m-3]</t>
-  </si>
-  <si>
     <t>Negative electrode specific heat capacity [J.kg-1.K-1]</t>
   </si>
   <si>
-    <t>Negative electrode thermal conductivity [W.m-1.K-1]</t>
-  </si>
-  <si>
     <t>Negative electrode OCP entropic change [V.K-1]</t>
   </si>
   <si>
@@ -489,12 +459,6 @@
     <t>&lt;function nmc_electrolyte_exchange_current_density_Xu2019 at 0x00000206D87AE430&gt;</t>
   </si>
   <si>
-    <t>Positive electrode density [kg.m-3]</t>
-  </si>
-  <si>
-    <t>Positive electrode specific heat capacity [J.kg-1.K-1]</t>
-  </si>
-  <si>
     <t>Positive electrode thermal conductivity [W.m-1.K-1]</t>
   </si>
   <si>
@@ -567,9 +531,6 @@
     <t>Separator porosity</t>
   </si>
   <si>
-    <t>Separator Bruggeman coefficient (electrolyte)</t>
-  </si>
-  <si>
     <t>Separator density [kg.m-3]</t>
   </si>
   <si>
@@ -580,9 +541,6 @@
   </si>
   <si>
     <t>Initial concentration in electrolyte [mol.m-3]</t>
-  </si>
-  <si>
-    <t>Cation transference number</t>
   </si>
   <si>
     <t>Thermodynamic factor</t>
@@ -751,6 +709,62 @@
   </si>
   <si>
     <t>Ambient temperature [K]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Negative electrode porosity</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Positive electrode specific heat capacity [J.kg-1.K-1]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Positive electrode density [kg.m-3]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Negative electrode thermal conductivity [W.m-1.K-1]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cation transference number</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Positive current collector thermal conductivity [W.m-1.K-1]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Negative current collector thermal conductivity [W.m-1.K-1]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Separator Bruggeman coefficient (electrolyte)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maximum concentration in negative electrode [mol.m-3]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Positive current collector density [kg.m-3]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Negative current collector density [kg.m-3]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Positive current collector conductivity [S.m-1]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Negative current collector conductivity [S.m-1]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Negative electrode density [kg.m-3]</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1426,7 +1440,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1530,6 +1544,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1889,8 +1906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O133"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O54" sqref="O54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1918,10 +1935,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>1</v>
@@ -1951,18 +1968,18 @@
         <v>9</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="O1" s="17" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B2" s="15">
         <v>100</v>
@@ -2003,12 +2020,12 @@
       </c>
       <c r="N2" s="18"/>
       <c r="O2" s="11" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="34" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A3" s="31" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B3" s="32">
         <v>2.2799999999999998</v>
@@ -2049,36 +2066,36 @@
       </c>
       <c r="N3" s="32"/>
       <c r="O3" s="33" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C4" s="16">
         <v>4.0000000000000003E-15</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="H4" s="16">
         <v>5.9000000000000002E-18</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="J4" s="16">
         <v>1E-14</v>
@@ -2095,12 +2112,12 @@
       </c>
       <c r="N4" s="18"/>
       <c r="O4" s="20" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B5" s="16">
         <v>3.0000000000000001E-6</v>
@@ -2143,7 +2160,7 @@
     </row>
     <row r="6" spans="1:15" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="B6" s="15">
         <v>21725</v>
@@ -2186,7 +2203,7 @@
     </row>
     <row r="7" spans="1:15" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="B7" s="15">
         <v>24108</v>
@@ -2227,7 +2244,7 @@
     </row>
     <row r="8" spans="1:15" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B8" s="15">
         <v>10</v>
@@ -2270,7 +2287,7 @@
     </row>
     <row r="9" spans="1:15" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B9" s="16">
         <v>5.0000000000000004E-6</v>
@@ -2354,7 +2371,7 @@
     </row>
     <row r="11" spans="1:15" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="B11" s="15">
         <v>35</v>
@@ -2391,7 +2408,7 @@
     </row>
     <row r="12" spans="1:15" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="B12" s="15">
         <v>2470</v>
@@ -2432,7 +2449,7 @@
     </row>
     <row r="13" spans="1:15" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="B13" s="15">
         <v>0.33400000000000002</v>
@@ -2473,7 +2490,7 @@
     </row>
     <row r="14" spans="1:15" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B14" s="15">
         <v>0.32</v>
@@ -2516,7 +2533,7 @@
     </row>
     <row r="15" spans="1:15" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="B15" s="15">
         <v>1080.2</v>
@@ -2557,7 +2574,7 @@
     </row>
     <row r="16" spans="1:15" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B16" s="15">
         <v>49943</v>
@@ -2600,7 +2617,7 @@
     </row>
     <row r="17" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B17" s="15">
         <v>2.9140000000000001</v>
@@ -2641,7 +2658,7 @@
     </row>
     <row r="18" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B18" s="15">
         <v>1.83</v>
@@ -2684,7 +2701,7 @@
     </row>
     <row r="19" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="B19" s="15">
         <v>0.5</v>
@@ -2852,7 +2869,7 @@
     </row>
     <row r="23" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="B23" s="15">
         <v>0.62</v>
@@ -2938,7 +2955,7 @@
     </row>
     <row r="25" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B25" s="15">
         <v>1080.2</v>
@@ -2979,7 +2996,7 @@
     </row>
     <row r="26" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="B26" s="15">
         <v>1.58</v>
@@ -3020,7 +3037,7 @@
     </row>
     <row r="27" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B27" s="15">
         <v>0.61</v>
@@ -3061,7 +3078,7 @@
     </row>
     <row r="28" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
-        <v>91</v>
+        <v>235</v>
       </c>
       <c r="B28" s="15">
         <v>2470</v>
@@ -3102,7 +3119,7 @@
     </row>
     <row r="29" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>75</v>
+        <v>222</v>
       </c>
       <c r="B29" s="8">
         <v>0.33</v>
@@ -3143,7 +3160,7 @@
     </row>
     <row r="30" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>153</v>
+        <v>223</v>
       </c>
       <c r="B30" s="8">
         <v>1080.2</v>
@@ -3184,7 +3201,7 @@
     </row>
     <row r="31" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>152</v>
+        <v>224</v>
       </c>
       <c r="B31" s="8">
         <v>2470</v>
@@ -3225,7 +3242,7 @@
     </row>
     <row r="32" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>93</v>
+        <v>225</v>
       </c>
       <c r="B32" s="8">
         <v>1.04</v>
@@ -3266,7 +3283,7 @@
     </row>
     <row r="33" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>183</v>
+        <v>226</v>
       </c>
       <c r="B33" s="8">
         <v>0.38</v>
@@ -3309,7 +3326,7 @@
     </row>
     <row r="34" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>54</v>
+        <v>227</v>
       </c>
       <c r="B34" s="8">
         <v>237</v>
@@ -3350,7 +3367,7 @@
     </row>
     <row r="35" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>53</v>
+        <v>228</v>
       </c>
       <c r="B35" s="8">
         <v>401</v>
@@ -3391,7 +3408,7 @@
     </row>
     <row r="36" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>178</v>
+        <v>229</v>
       </c>
       <c r="B36" s="8">
         <v>1.5</v>
@@ -3434,7 +3451,7 @@
     </row>
     <row r="37" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>58</v>
+        <v>230</v>
       </c>
       <c r="B37" s="8">
         <v>28700</v>
@@ -3473,134 +3490,134 @@
       </c>
       <c r="N37" s="18"/>
     </row>
-    <row r="38" spans="1:14" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="B38" s="28">
+    <row r="38" spans="1:14" s="35" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="B38" s="8">
         <v>2700</v>
       </c>
-      <c r="C38" s="28">
+      <c r="C38" s="8">
         <v>2700</v>
       </c>
-      <c r="D38" s="28">
+      <c r="D38" s="8">
         <v>2702</v>
       </c>
-      <c r="E38" s="28">
+      <c r="E38" s="8">
         <v>2707</v>
       </c>
-      <c r="F38" s="28">
+      <c r="F38" s="8">
         <v>2707</v>
       </c>
-      <c r="G38" s="28">
+      <c r="G38" s="8">
         <v>3490.2433799999999</v>
       </c>
-      <c r="H38" s="28">
+      <c r="H38" s="8">
         <v>2700</v>
       </c>
-      <c r="I38" s="28">
+      <c r="I38" s="8">
         <v>2707</v>
       </c>
-      <c r="J38" s="28"/>
-      <c r="K38" s="28">
+      <c r="J38" s="8"/>
+      <c r="K38" s="8">
         <v>2700</v>
       </c>
-      <c r="L38" s="28">
+      <c r="L38" s="8">
         <v>3490.2433799999999</v>
       </c>
-      <c r="M38" s="28">
+      <c r="M38" s="8">
         <f t="shared" si="1"/>
         <v>0.29268273333333328</v>
       </c>
-      <c r="N38" s="28"/>
-    </row>
-    <row r="39" spans="1:14" s="29" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="B39" s="28">
+      <c r="N38" s="8"/>
+    </row>
+    <row r="39" spans="1:14" s="35" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="B39" s="8">
         <v>8960</v>
       </c>
-      <c r="C39" s="28">
+      <c r="C39" s="8">
         <v>8960</v>
       </c>
-      <c r="D39" s="28">
+      <c r="D39" s="8">
         <v>8933</v>
       </c>
-      <c r="E39" s="28">
+      <c r="E39" s="8">
         <v>8954</v>
       </c>
-      <c r="F39" s="28">
+      <c r="F39" s="8">
         <v>8954</v>
       </c>
-      <c r="G39" s="28">
+      <c r="G39" s="8">
         <v>11544.75</v>
       </c>
-      <c r="H39" s="28">
+      <c r="H39" s="8">
         <v>8960</v>
       </c>
-      <c r="I39" s="28">
+      <c r="I39" s="8">
         <v>8954</v>
       </c>
-      <c r="J39" s="28"/>
-      <c r="K39" s="28">
+      <c r="J39" s="8"/>
+      <c r="K39" s="8">
         <v>8933</v>
       </c>
-      <c r="L39" s="28">
+      <c r="L39" s="8">
         <v>11544.75</v>
       </c>
-      <c r="M39" s="28">
+      <c r="M39" s="8">
         <f t="shared" si="1"/>
         <v>0.29237098399194</v>
       </c>
-      <c r="N39" s="28"/>
-    </row>
-    <row r="40" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="B40" s="8">
+      <c r="N39" s="8"/>
+    </row>
+    <row r="40" spans="1:14" s="26" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="B40" s="25">
         <v>1000</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C40" s="25">
         <v>1000</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="25">
         <v>1000</v>
       </c>
-      <c r="E40" s="8">
+      <c r="E40" s="25">
         <v>1000</v>
       </c>
-      <c r="F40" s="8">
+      <c r="F40" s="25">
         <v>1000</v>
       </c>
-      <c r="G40" s="8">
+      <c r="G40" s="25">
         <v>1200</v>
       </c>
-      <c r="H40" s="8">
+      <c r="H40" s="25">
         <v>1000</v>
       </c>
-      <c r="I40" s="8">
+      <c r="I40" s="25">
         <v>1000</v>
       </c>
-      <c r="J40" s="8">
+      <c r="J40" s="25">
         <v>1000</v>
       </c>
-      <c r="K40" s="8">
+      <c r="K40" s="25">
         <v>1000</v>
       </c>
-      <c r="L40" s="8">
+      <c r="L40" s="25">
         <v>1200</v>
       </c>
-      <c r="M40" s="8">
+      <c r="M40" s="25">
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
-      <c r="N40" s="18"/>
+      <c r="N40" s="25"/>
     </row>
     <row r="41" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>48</v>
+        <v>233</v>
       </c>
       <c r="B41" s="8">
         <v>36914000</v>
@@ -3641,7 +3658,7 @@
     </row>
     <row r="42" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>47</v>
+        <v>234</v>
       </c>
       <c r="B42" s="8">
         <v>58411000</v>
@@ -3680,50 +3697,50 @@
       </c>
       <c r="N42" s="18"/>
     </row>
-    <row r="43" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B43" s="8">
+    <row r="43" spans="1:14" s="26" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="25">
         <v>897</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C43" s="25">
         <v>897</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D43" s="25">
         <v>903</v>
       </c>
-      <c r="E43" s="8">
+      <c r="E43" s="25">
         <v>897</v>
       </c>
-      <c r="F43" s="8">
+      <c r="F43" s="25">
         <v>897</v>
       </c>
-      <c r="G43" s="8">
+      <c r="G43" s="25">
         <v>897</v>
       </c>
-      <c r="H43" s="8">
+      <c r="H43" s="25">
         <v>897</v>
       </c>
-      <c r="I43" s="8">
+      <c r="I43" s="25">
         <v>897</v>
       </c>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8">
+      <c r="J43" s="25"/>
+      <c r="K43" s="25">
         <v>897</v>
       </c>
-      <c r="L43" s="8">
+      <c r="L43" s="25">
         <v>903</v>
       </c>
-      <c r="M43" s="8">
+      <c r="M43" s="25">
         <f t="shared" si="1"/>
         <v>6.688963210702341E-3</v>
       </c>
-      <c r="N43" s="18"/>
+      <c r="N43" s="25"/>
     </row>
     <row r="44" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="B44" s="10">
         <v>34</v>
@@ -3763,7 +3780,7 @@
     </row>
     <row r="45" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="B45" s="10">
         <v>3</v>
@@ -3803,7 +3820,7 @@
     </row>
     <row r="46" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="B46" s="10">
         <v>4.2</v>
@@ -3843,7 +3860,7 @@
     </row>
     <row r="47" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="B47" s="10">
         <v>2.2799999999999998</v>
@@ -5035,7 +5052,7 @@
     </row>
     <row r="79" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A79" s="21" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B79" s="22">
         <v>385</v>
@@ -5073,7 +5090,7 @@
     </row>
     <row r="80" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A80" s="21" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B80" s="22">
         <v>0</v>
@@ -5113,31 +5130,31 @@
     </row>
     <row r="81" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A81" s="21" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B81" s="22" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C81" s="23">
         <v>3.2999999999999998E-14</v>
       </c>
       <c r="D81" s="22" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E81" s="22" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F81" s="22" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="G81" s="22" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="H81" s="23">
         <v>3.2999999999999998E-14</v>
       </c>
       <c r="I81" s="22" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="J81" s="22"/>
       <c r="K81" s="23">
@@ -5151,31 +5168,31 @@
     </row>
     <row r="82" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A82" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B82" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C82" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D82" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E82" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F82" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="G82" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="H82" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="B82" s="22" t="s">
+      <c r="I82" s="22" t="s">
         <v>67</v>
-      </c>
-      <c r="C82" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D82" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="E82" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="F82" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="G82" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="H82" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="I82" s="22" t="s">
-        <v>74</v>
       </c>
       <c r="J82" s="22">
         <v>0</v>
@@ -5191,7 +5208,7 @@
     </row>
     <row r="83" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A83" s="21" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B83" s="22">
         <v>0.5</v>
@@ -5229,7 +5246,7 @@
     </row>
     <row r="84" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A84" s="21" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B84" s="22">
         <v>0.2</v>
@@ -5267,31 +5284,31 @@
     </row>
     <row r="85" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A85" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B85" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C85" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D85" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E85" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="F85" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="G85" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="H85" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="I85" s="22" t="s">
         <v>82</v>
-      </c>
-      <c r="B85" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="C85" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="D85" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="E85" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="F85" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="G85" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="H85" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="I85" s="22" t="s">
-        <v>90</v>
       </c>
       <c r="J85" s="22"/>
       <c r="K85" s="22">
@@ -5305,10 +5322,10 @@
     </row>
     <row r="86" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A86" s="21" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B86" s="22" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C86" s="22">
         <v>0</v>
@@ -5317,10 +5334,10 @@
         <v>0</v>
       </c>
       <c r="E86" s="22" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="F86" s="22" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="G86" s="22">
         <v>0</v>
@@ -5329,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="I86" s="22" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="J86" s="22">
         <v>0</v>
@@ -5345,7 +5362,7 @@
     </row>
     <row r="87" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A87" s="21" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B87" s="22">
         <v>0.3</v>
@@ -5369,7 +5386,7 @@
     </row>
     <row r="88" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A88" s="21" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B88" s="22">
         <v>15000000000</v>
@@ -5393,7 +5410,7 @@
     </row>
     <row r="89" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A89" s="21" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B89" s="22">
         <v>0</v>
@@ -5417,7 +5434,7 @@
     </row>
     <row r="90" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A90" s="21" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B90" s="23">
         <v>3.1E-6</v>
@@ -5441,10 +5458,10 @@
     </row>
     <row r="91" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A91" s="21" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B91" s="22" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C91" s="22"/>
       <c r="D91" s="22"/>
@@ -5465,7 +5482,7 @@
     </row>
     <row r="92" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A92" s="21" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B92" s="23">
         <v>2E-8</v>
@@ -5489,7 +5506,7 @@
     </row>
     <row r="93" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A93" s="21" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B93" s="23">
         <v>1.4999999999999999E-8</v>
@@ -5513,7 +5530,7 @@
     </row>
     <row r="94" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A94" s="21" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B94" s="23">
         <v>3180000000000000</v>
@@ -5537,7 +5554,7 @@
     </row>
     <row r="95" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A95" s="21" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B95" s="22">
         <v>1.1200000000000001</v>
@@ -5561,7 +5578,7 @@
     </row>
     <row r="96" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A96" s="21" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B96" s="22">
         <v>2.2000000000000002</v>
@@ -5585,10 +5602,10 @@
     </row>
     <row r="97" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A97" s="21" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B97" s="22" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C97" s="22"/>
       <c r="D97" s="22"/>
@@ -5609,7 +5626,7 @@
     </row>
     <row r="98" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A98" s="21" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B98" s="22">
         <v>0</v>
@@ -5633,7 +5650,7 @@
     </row>
     <row r="99" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A99" s="21" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B99" s="22">
         <v>0</v>
@@ -5657,7 +5674,7 @@
     </row>
     <row r="100" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A100" s="21" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B100" s="22">
         <v>2</v>
@@ -5681,7 +5698,7 @@
     </row>
     <row r="101" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A101" s="21" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B101" s="22">
         <v>60000000</v>
@@ -5705,34 +5722,34 @@
     </row>
     <row r="102" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A102" s="21" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B102" s="22" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C102" s="22" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D102" s="22" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="E102" s="22" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="F102" s="22" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="G102" s="22" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="H102" s="22" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="I102" s="22" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="J102" s="22" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="K102" s="22">
         <v>0</v>
@@ -5745,7 +5762,7 @@
     </row>
     <row r="103" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A103" s="21" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B103" s="22">
         <v>620000</v>
@@ -5769,7 +5786,7 @@
     </row>
     <row r="104" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A104" s="21" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B104" s="22">
         <v>0.5</v>
@@ -5807,7 +5824,7 @@
     </row>
     <row r="105" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A105" s="21" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B105" s="22">
         <v>0.2</v>
@@ -5845,34 +5862,34 @@
     </row>
     <row r="106" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A106" s="21" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B106" s="22" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C106" s="22" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="D106" s="22" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E106" s="22" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="F106" s="22" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="G106" s="22" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="H106" s="22" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="I106" s="22" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="J106" s="22" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="K106" s="22">
         <v>0</v>
@@ -5885,10 +5902,10 @@
     </row>
     <row r="107" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A107" s="21" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="B107" s="22" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="C107" s="22">
         <v>0</v>
@@ -5897,10 +5914,10 @@
         <v>0</v>
       </c>
       <c r="E107" s="22" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="F107" s="22" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="G107" s="22">
         <v>0</v>
@@ -5909,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="I107" s="22" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="J107" s="22">
         <v>0</v>
@@ -5925,7 +5942,7 @@
     </row>
     <row r="108" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A108" s="21" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="B108" s="22">
         <v>0.2</v>
@@ -5949,7 +5966,7 @@
     </row>
     <row r="109" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A109" s="21" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B109" s="23">
         <v>375000000000</v>
@@ -5973,7 +5990,7 @@
     </row>
     <row r="110" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A110" s="21" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="B110" s="22">
         <v>0</v>
@@ -5997,7 +6014,7 @@
     </row>
     <row r="111" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A111" s="21" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="B111" s="23">
         <v>-7.2799999999999995E-7</v>
@@ -6021,10 +6038,10 @@
     </row>
     <row r="112" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A112" s="21" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="B112" s="22" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C112" s="22"/>
       <c r="D112" s="22"/>
@@ -6045,7 +6062,7 @@
     </row>
     <row r="113" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A113" s="21" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="B113" s="23">
         <v>2E-8</v>
@@ -6069,7 +6086,7 @@
     </row>
     <row r="114" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A114" s="21" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="B114" s="23">
         <v>1.4999999999999999E-8</v>
@@ -6093,7 +6110,7 @@
     </row>
     <row r="115" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A115" s="21" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B115" s="23">
         <v>3180000000000000</v>
@@ -6117,7 +6134,7 @@
     </row>
     <row r="116" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A116" s="21" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="B116" s="22">
         <v>1.1200000000000001</v>
@@ -6141,7 +6158,7 @@
     </row>
     <row r="117" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A117" s="21" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="B117" s="22">
         <v>2.2000000000000002</v>
@@ -6165,10 +6182,10 @@
     </row>
     <row r="118" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A118" s="21" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="B118" s="22" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="C118" s="22"/>
       <c r="D118" s="22"/>
@@ -6189,7 +6206,7 @@
     </row>
     <row r="119" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A119" s="21" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="B119" s="22">
         <v>0</v>
@@ -6213,7 +6230,7 @@
     </row>
     <row r="120" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A120" s="21" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="B120" s="23">
         <v>2.7799999999999998E-13</v>
@@ -6237,7 +6254,7 @@
     </row>
     <row r="121" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A121" s="21" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="B121" s="22">
         <v>2</v>
@@ -6261,7 +6278,7 @@
     </row>
     <row r="122" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A122" s="21" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="B122" s="22">
         <v>375000000</v>
@@ -6285,10 +6302,10 @@
     </row>
     <row r="123" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A123" s="21" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="B123" s="22" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="C123" s="22">
         <v>1</v>
@@ -6325,34 +6342,34 @@
     </row>
     <row r="124" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A124" s="21" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="B124" s="22" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="C124" s="22" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="D124" s="22" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="E124" s="22" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="F124" s="22" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="G124" s="22" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="H124" s="22" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="I124" s="22" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="J124" s="22" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="K124" s="22">
         <v>0</v>
@@ -6365,34 +6382,34 @@
     </row>
     <row r="125" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A125" s="21" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="B125" s="22" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="C125" s="22" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="D125" s="22" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="E125" s="22" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="F125" s="22" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="G125" s="22" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="H125" s="22" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="I125" s="22" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="J125" s="22" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="K125" s="22">
         <v>0</v>
@@ -6405,7 +6422,7 @@
     </row>
     <row r="126" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A126" s="21" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="B126" s="22">
         <v>298.14999999999998</v>
@@ -6445,7 +6462,7 @@
     </row>
     <row r="127" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A127" s="21" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="B127" s="22">
         <v>298.14999999999998</v>
@@ -6485,7 +6502,7 @@
     </row>
     <row r="128" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A128" s="21" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="B128" s="22">
         <v>1</v>
@@ -6525,7 +6542,7 @@
     </row>
     <row r="129" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A129" s="21" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="B129" s="22">
         <v>298.14999999999998</v>
@@ -6565,34 +6582,34 @@
     </row>
     <row r="130" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="J130" s="2" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="K130" s="2"/>
       <c r="L130" s="2"/>
@@ -6641,7 +6658,7 @@
     </row>
     <row r="132" spans="1:14" s="26" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A132" s="24" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B132" s="25">
         <v>0</v>
@@ -6681,7 +6698,7 @@
     </row>
     <row r="133" spans="1:14" s="26" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A133" s="24" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="B133" s="25">
         <v>0</v>
